--- a/Code/Results/Cases/Case_5_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.864654719623985</v>
+        <v>3.031191229754768</v>
       </c>
       <c r="C2">
-        <v>0.296575251839414</v>
+        <v>0.7740666020937681</v>
       </c>
       <c r="D2">
-        <v>0.359425217255648</v>
+        <v>0.009422175935597021</v>
       </c>
       <c r="E2">
-        <v>0.08418371441623052</v>
+        <v>0.1676927025939889</v>
       </c>
       <c r="F2">
-        <v>6.55391789149013</v>
+        <v>1.488064796983323</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,33 +448,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4614698220846307</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1400899563295788</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5377136839941556</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1.085201269110428</v>
+      </c>
+      <c r="N2">
+        <v>0.6313997918817762</v>
+      </c>
+      <c r="O2">
+        <v>1.137812428651387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.598124402792394</v>
+        <v>2.615540779207777</v>
       </c>
       <c r="C3">
-        <v>0.2534570502914022</v>
+        <v>0.6696647081847402</v>
       </c>
       <c r="D3">
-        <v>0.3212747806638845</v>
+        <v>0.01058109575632571</v>
       </c>
       <c r="E3">
-        <v>0.07497360589215418</v>
+        <v>0.1456497741373504</v>
       </c>
       <c r="F3">
-        <v>5.771889007317526</v>
+        <v>1.321063185358881</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -483,33 +495,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3942386242384828</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1213496250238784</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4626452079791932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.9349879390836477</v>
+      </c>
+      <c r="N3">
+        <v>0.6748009190796402</v>
+      </c>
+      <c r="O3">
+        <v>1.014992155230175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.438933383979958</v>
+        <v>2.363505677925275</v>
       </c>
       <c r="C4">
-        <v>0.2277164054067242</v>
+        <v>0.6062644961983494</v>
       </c>
       <c r="D4">
-        <v>0.2983473665045722</v>
+        <v>0.01133431809296681</v>
       </c>
       <c r="E4">
-        <v>0.06945558997290036</v>
+        <v>0.1325134066882185</v>
       </c>
       <c r="F4">
-        <v>5.30249790556249</v>
+        <v>1.222057267694041</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -524,33 +542,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3540878067979492</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1101382742857737</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4177791639903745</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.8442471628402615</v>
+      </c>
+      <c r="N4">
+        <v>0.7030291387657677</v>
+      </c>
+      <c r="O4">
+        <v>0.9424455785831611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.375025085412744</v>
+        <v>2.261473747703576</v>
       </c>
       <c r="C5">
-        <v>0.2173802034251651</v>
+        <v>0.5805731288691902</v>
       </c>
       <c r="D5">
-        <v>0.2891078931175173</v>
+        <v>0.01165089100529704</v>
       </c>
       <c r="E5">
-        <v>0.06723676814733892</v>
+        <v>0.127247797699404</v>
       </c>
       <c r="F5">
-        <v>5.113520610759906</v>
+        <v>1.182506245564596</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -565,33 +589,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.337968342109491</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1056336224744925</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3997614585121667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.8075896364210067</v>
+      </c>
+      <c r="N5">
+        <v>0.7149083789842656</v>
+      </c>
+      <c r="O5">
+        <v>0.9135278935023052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.364467042919586</v>
+        <v>2.244568719871552</v>
       </c>
       <c r="C6">
-        <v>0.2156722974871457</v>
+        <v>0.5763149537999936</v>
       </c>
       <c r="D6">
-        <v>0.2875793612699624</v>
+        <v>0.01170401636710094</v>
       </c>
       <c r="E6">
-        <v>0.06687000820640776</v>
+        <v>0.1263783905610474</v>
       </c>
       <c r="F6">
-        <v>5.082269089257125</v>
+        <v>1.175984225877258</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -606,33 +636,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3353052198040061</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1048892199032814</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3967845065962123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.8015204994512359</v>
+      </c>
+      <c r="N6">
+        <v>0.7169030410756001</v>
+      </c>
+      <c r="O6">
+        <v>0.908763054367796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.438067790404887</v>
+        <v>2.362127065637992</v>
       </c>
       <c r="C7">
-        <v>0.2275764257507404</v>
+        <v>0.6059174677618842</v>
       </c>
       <c r="D7">
-        <v>0.2982223667829516</v>
+        <v>0.0113385495654148</v>
       </c>
       <c r="E7">
-        <v>0.06942555124748395</v>
+        <v>0.1324420540523015</v>
       </c>
       <c r="F7">
-        <v>5.299940472642106</v>
+        <v>1.221520769616532</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -647,33 +683,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3538694847090511</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1100772762783002</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4175351488867136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.8437515597052467</v>
+      </c>
+      <c r="N7">
+        <v>0.7031878506446461</v>
+      </c>
+      <c r="O7">
+        <v>0.9420530649777845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.771728656090431</v>
+        <v>2.887137609102183</v>
       </c>
       <c r="C8">
-        <v>0.2815357290260181</v>
+        <v>0.7379027321555895</v>
       </c>
       <c r="D8">
-        <v>0.3461541855779018</v>
+        <v>0.009812592067921067</v>
       </c>
       <c r="E8">
-        <v>0.08097668061990149</v>
+        <v>0.1600017737849981</v>
       </c>
       <c r="F8">
-        <v>6.281778672887356</v>
+        <v>1.429690173797965</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -688,33 +730,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4380275000990039</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1335605192789622</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5115482892237964</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1.033063772030694</v>
+      </c>
+      <c r="N8">
+        <v>0.6460232752094655</v>
+      </c>
+      <c r="O8">
+        <v>1.09482212029765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.469620177853358</v>
+        <v>3.948116204965629</v>
       </c>
       <c r="C9">
-        <v>0.3948083766294133</v>
+        <v>1.003917375936936</v>
       </c>
       <c r="D9">
-        <v>0.4451929535763099</v>
+        <v>0.007194007971168759</v>
       </c>
       <c r="E9">
-        <v>0.104954027285995</v>
+        <v>0.2178364970407287</v>
       </c>
       <c r="F9">
-        <v>8.313642885576286</v>
+        <v>1.870642597683343</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -729,33 +777,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6141875968850101</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1824798497744737</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7078526910911336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.418888514787085</v>
+      </c>
+      <c r="N9">
+        <v>0.5475152902245384</v>
+      </c>
+      <c r="O9">
+        <v>1.420887011952416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.022365153698729</v>
+        <v>4.756558546647057</v>
       </c>
       <c r="C10">
-        <v>0.4852792314503063</v>
+        <v>1.206286129649413</v>
       </c>
       <c r="D10">
-        <v>0.5228214035809629</v>
+        <v>0.005568460904256334</v>
       </c>
       <c r="E10">
-        <v>0.1237642936909289</v>
+        <v>0.2636355343458732</v>
       </c>
       <c r="F10">
-        <v>9.905477984731363</v>
+        <v>2.221905204810071</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -770,33 +824,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7539512450940435</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2210262968017176</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8629800120768465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.715577173439485</v>
+      </c>
+      <c r="N10">
+        <v>0.4850761011199509</v>
+      </c>
+      <c r="O10">
+        <v>1.682458427187441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.286223011972822</v>
+        <v>5.133147689374482</v>
       </c>
       <c r="C11">
-        <v>0.5287680820556773</v>
+        <v>1.30051414567788</v>
       </c>
       <c r="D11">
-        <v>0.5596828807831002</v>
+        <v>0.004912957692866371</v>
       </c>
       <c r="E11">
-        <v>0.1326858015382477</v>
+        <v>0.2854499984599954</v>
       </c>
       <c r="F11">
-        <v>10.66048343551324</v>
+        <v>2.389525758246052</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -811,33 +871,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.820764339272344</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.239362620686741</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9369161186746453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.854544203404203</v>
+      </c>
+      <c r="N11">
+        <v>0.4592563155355691</v>
+      </c>
+      <c r="O11">
+        <v>1.807750335115429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.388305904545689</v>
+        <v>5.277263650172529</v>
       </c>
       <c r="C12">
-        <v>0.5456505543605772</v>
+        <v>1.336571729524053</v>
       </c>
       <c r="D12">
-        <v>0.5739139897607686</v>
+        <v>0.004678763406412934</v>
       </c>
       <c r="E12">
-        <v>0.1361272179326498</v>
+        <v>0.2938770280483638</v>
       </c>
       <c r="F12">
-        <v>10.95177609081497</v>
+        <v>2.454308101619461</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -852,33 +918,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8466314952249476</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2464453236595148</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9655003900285593</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.90785163001317</v>
+      </c>
+      <c r="N12">
+        <v>0.4498924974516001</v>
+      </c>
+      <c r="O12">
+        <v>1.856247937652171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.366217347944257</v>
+        <v>5.246154364557299</v>
       </c>
       <c r="C13">
-        <v>0.5419947650264305</v>
+        <v>1.328788277002047</v>
       </c>
       <c r="D13">
-        <v>0.5708360524648413</v>
+        <v>0.004728542559044868</v>
       </c>
       <c r="E13">
-        <v>0.1353830542008332</v>
+        <v>0.2920542729123952</v>
       </c>
       <c r="F13">
-        <v>10.88878432319962</v>
+        <v>2.440294720235102</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -893,33 +965,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.841033515522227</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2449133197876776</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9593163470718551</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.896338632789053</v>
+      </c>
+      <c r="N13">
+        <v>0.4518900383774564</v>
+      </c>
+      <c r="O13">
+        <v>1.845753769731047</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.294575585519908</v>
+        <v>5.144972441605319</v>
       </c>
       <c r="C14">
-        <v>0.530148204533134</v>
+        <v>1.303472704115052</v>
       </c>
       <c r="D14">
-        <v>0.5608479029607452</v>
+        <v>0.004893396793164584</v>
       </c>
       <c r="E14">
-        <v>0.1329675980175828</v>
+        <v>0.2861398023314692</v>
       </c>
       <c r="F14">
-        <v>10.68433419548569</v>
+        <v>2.3948280929677</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -934,33 +1012,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8228804405149859</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2399423775604248</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9392553605753733</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.858915463268602</v>
+      </c>
+      <c r="N14">
+        <v>0.458477398762831</v>
+      </c>
+      <c r="O14">
+        <v>1.811718264891965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.250987520328465</v>
+        <v>5.083199915642581</v>
       </c>
       <c r="C15">
-        <v>0.5229483893783708</v>
+        <v>1.288017119165659</v>
       </c>
       <c r="D15">
-        <v>0.5547669949319243</v>
+        <v>0.004996265709388936</v>
       </c>
       <c r="E15">
-        <v>0.1314966176595611</v>
+        <v>0.2825395007727778</v>
       </c>
       <c r="F15">
-        <v>10.55983549722117</v>
+        <v>2.367154648484473</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -975,33 +1059,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8118382784704181</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2369164365991665</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9270471329080863</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.836085185720577</v>
+      </c>
+      <c r="N15">
+        <v>0.4625675513003316</v>
+      </c>
+      <c r="O15">
+        <v>1.791012247390157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.005402123402348</v>
+        <v>4.732145005624261</v>
       </c>
       <c r="C16">
-        <v>0.4824904595104726</v>
+        <v>1.200176995115271</v>
       </c>
       <c r="D16">
-        <v>0.5204476268976066</v>
+        <v>0.00561314904879584</v>
       </c>
       <c r="E16">
-        <v>0.123189453550232</v>
+        <v>0.2622317232267122</v>
       </c>
       <c r="F16">
-        <v>9.85683508563082</v>
+        <v>2.21112338592232</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1016,33 +1106,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7496581658927468</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2198460454649691</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8582241762134473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.706584792593546</v>
+      </c>
+      <c r="N16">
+        <v>0.4868189442761519</v>
+      </c>
+      <c r="O16">
+        <v>1.674409161118106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.858171620063104</v>
+        <v>4.519206004182934</v>
       </c>
       <c r="C17">
-        <v>0.4583196990632814</v>
+        <v>1.146888096413761</v>
       </c>
       <c r="D17">
-        <v>0.4998229978164659</v>
+        <v>0.006014384714128518</v>
       </c>
       <c r="E17">
-        <v>0.1181936416286966</v>
+        <v>0.250041595163502</v>
       </c>
       <c r="F17">
-        <v>9.434097187674666</v>
+        <v>2.117530795856382</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1057,33 +1153,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7124073037491527</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2095948445974756</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8169329432060977</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.62823791235148</v>
+      </c>
+      <c r="N17">
+        <v>0.502386370097831</v>
+      </c>
+      <c r="O17">
+        <v>1.604588930394286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.774630199486467</v>
+        <v>4.397543579504543</v>
       </c>
       <c r="C18">
-        <v>0.444631410648924</v>
+        <v>1.116437652598307</v>
       </c>
       <c r="D18">
-        <v>0.4881024904365745</v>
+        <v>0.006252933380869408</v>
       </c>
       <c r="E18">
-        <v>0.1153537695411089</v>
+        <v>0.2431207040537018</v>
       </c>
       <c r="F18">
-        <v>9.193789457801302</v>
+        <v>2.064423524508186</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1098,33 +1200,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6912789018852905</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2037723926089754</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7934932260835339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.583544253115903</v>
+      </c>
+      <c r="N18">
+        <v>0.5115807467153743</v>
+      </c>
+      <c r="O18">
+        <v>1.565013517218958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.746530116482973</v>
+        <v>4.356483825473731</v>
       </c>
       <c r="C19">
-        <v>0.4400314097258615</v>
+        <v>1.106160195656713</v>
       </c>
       <c r="D19">
-        <v>0.4841571804101079</v>
+        <v>0.006334981706836551</v>
       </c>
       <c r="E19">
-        <v>0.1143977127504101</v>
+        <v>0.2407922444235879</v>
       </c>
       <c r="F19">
-        <v>9.112886948960551</v>
+        <v>2.046561618332419</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1139,33 +1247,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6841734642213453</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2018130205501976</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7856073591848158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.568472131015099</v>
+      </c>
+      <c r="N19">
+        <v>0.5147339058867928</v>
+      </c>
+      <c r="O19">
+        <v>1.551710011102912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.873723865951263</v>
+        <v>4.541787787078874</v>
       </c>
       <c r="C20">
-        <v>0.4608700388235718</v>
+        <v>1.152539666974235</v>
       </c>
       <c r="D20">
-        <v>0.5020034714106885</v>
+        <v>0.005970855341947967</v>
       </c>
       <c r="E20">
-        <v>0.1187219073250532</v>
+        <v>0.2513297111009578</v>
       </c>
       <c r="F20">
-        <v>9.478798103441477</v>
+        <v>2.12741763850812</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1180,33 +1294,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.716341277081078</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2106783083295625</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8212957120291335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.636539103670557</v>
+      </c>
+      <c r="N20">
+        <v>0.5007040238889928</v>
+      </c>
+      <c r="O20">
+        <v>1.611960043484444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.315556330507093</v>
+        <v>5.174648967770281</v>
       </c>
       <c r="C21">
-        <v>0.533615878953924</v>
+        <v>1.310897760719229</v>
       </c>
       <c r="D21">
-        <v>0.5637738258570266</v>
+        <v>0.004844577064920585</v>
       </c>
       <c r="E21">
-        <v>0.1336752712169123</v>
+        <v>0.2878722897322561</v>
       </c>
       <c r="F21">
-        <v>10.74423146614021</v>
+        <v>2.408145667615855</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1221,33 +1341,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8281961570004697</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2413984749324811</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9451309378160957</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.869888064898404</v>
+      </c>
+      <c r="N21">
+        <v>0.4565309435930658</v>
+      </c>
+      <c r="O21">
+        <v>1.82168549566336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.617176052989748</v>
+        <v>5.597197018399527</v>
       </c>
       <c r="C22">
-        <v>0.5836225805199149</v>
+        <v>1.416618699007756</v>
       </c>
       <c r="D22">
-        <v>0.6057628270330611</v>
+        <v>0.004191432541857054</v>
       </c>
       <c r="E22">
-        <v>0.1438219778555201</v>
+        <v>0.3127392695236253</v>
       </c>
       <c r="F22">
-        <v>11.60325050832256</v>
+        <v>2.599345339545749</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1262,33 +1388,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9046641255552998</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2623014085990221</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.029543992900706</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2.02644137672857</v>
+      </c>
+      <c r="N22">
+        <v>0.4300957741967011</v>
+      </c>
+      <c r="O22">
+        <v>1.964969532512043</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.454873511297592</v>
+        <v>5.370769123711852</v>
       </c>
       <c r="C23">
-        <v>0.5566773061388801</v>
+        <v>1.359966491786963</v>
       </c>
       <c r="D23">
-        <v>0.583185373746943</v>
+        <v>0.004531701472697769</v>
       </c>
       <c r="E23">
-        <v>0.1383682552319385</v>
+        <v>0.2993678379264537</v>
       </c>
       <c r="F23">
-        <v>11.14148712637592</v>
+        <v>2.496524522524084</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1303,33 +1435,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.863504929966652</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2510604605057054</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9841337535126087</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.942475889492528</v>
+      </c>
+      <c r="N23">
+        <v>0.4439665274682554</v>
+      </c>
+      <c r="O23">
+        <v>1.887873695052377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.866689286604185</v>
+        <v>4.531576216558392</v>
       </c>
       <c r="C24">
-        <v>0.459716388665214</v>
+        <v>1.149984017089707</v>
       </c>
       <c r="D24">
-        <v>0.5010172566158815</v>
+        <v>0.005990510592368992</v>
       </c>
       <c r="E24">
-        <v>0.1184829786091086</v>
+        <v>0.2507470836001602</v>
       </c>
       <c r="F24">
-        <v>9.458580385558292</v>
+        <v>2.122945628946923</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1344,33 +1482,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7145618392616342</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2101882546553213</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8193223798424043</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.632785055975802</v>
+      </c>
+      <c r="N24">
+        <v>0.5014638542850633</v>
+      </c>
+      <c r="O24">
+        <v>1.608625813669136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.274895488017478</v>
+        <v>3.65678573746419</v>
       </c>
       <c r="C25">
-        <v>0.363114466093748</v>
+        <v>0.9309389724027994</v>
       </c>
       <c r="D25">
-        <v>0.4176917053578251</v>
+        <v>0.007855756396995872</v>
       </c>
       <c r="E25">
-        <v>0.09828913556238206</v>
+        <v>0.2016893490846883</v>
       </c>
       <c r="F25">
-        <v>7.74935614496826</v>
+        <v>1.747141878596025</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1385,13 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5650072368769727</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1688581045861959</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.653128144027967</v>
+        <v>1.312534792948426</v>
+      </c>
+      <c r="N25">
+        <v>0.5725508824185397</v>
+      </c>
+      <c r="O25">
+        <v>1.329277661514467</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_59/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.031191229754768</v>
+        <v>1.266053372567256</v>
       </c>
       <c r="C2">
-        <v>0.7740666020937681</v>
+        <v>0.1606810873135771</v>
       </c>
       <c r="D2">
-        <v>0.009422175935597021</v>
+        <v>0.005745396096269673</v>
       </c>
       <c r="E2">
-        <v>0.1676927025939889</v>
+        <v>0.02053548684510531</v>
       </c>
       <c r="F2">
-        <v>1.488064796983323</v>
+        <v>2.003044937880659</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.2211426106186</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.05788280501990162</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.306071289300064</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1728521528125455</v>
       </c>
       <c r="M2">
-        <v>1.085201269110428</v>
+        <v>0.2642752963065007</v>
       </c>
       <c r="N2">
-        <v>0.6313997918817762</v>
+        <v>2.088378956465235</v>
       </c>
       <c r="O2">
-        <v>1.137812428651387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.615540779207777</v>
+        <v>1.124876761536115</v>
       </c>
       <c r="C3">
-        <v>0.6696647081847402</v>
+        <v>0.1393627634175942</v>
       </c>
       <c r="D3">
-        <v>0.01058109575632571</v>
+        <v>0.004990333623178245</v>
       </c>
       <c r="E3">
-        <v>0.1456497741373504</v>
+        <v>0.02039288758769597</v>
       </c>
       <c r="F3">
-        <v>1.321063185358881</v>
+        <v>1.94634837999935</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.202626298353707</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.05872338836122282</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.153634761052558</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1616773012771802</v>
       </c>
       <c r="M3">
-        <v>0.9349879390836477</v>
+        <v>0.2381284682833247</v>
       </c>
       <c r="N3">
-        <v>0.6748009190796402</v>
+        <v>2.132247747246495</v>
       </c>
       <c r="O3">
-        <v>1.014992155230175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.363505677925275</v>
+        <v>1.039493058817783</v>
       </c>
       <c r="C4">
-        <v>0.6062644961983494</v>
+        <v>0.1264580798049053</v>
       </c>
       <c r="D4">
-        <v>0.01133431809296681</v>
+        <v>0.004527621650472824</v>
       </c>
       <c r="E4">
-        <v>0.1325134066882185</v>
+        <v>0.02031731991106422</v>
       </c>
       <c r="F4">
-        <v>1.222057267694041</v>
+        <v>1.914132886286367</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.192768980287077</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.05926660770191106</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.061417978181566</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1550092589700611</v>
       </c>
       <c r="M4">
-        <v>0.8442471628402615</v>
+        <v>0.2223611158019878</v>
       </c>
       <c r="N4">
-        <v>0.7030291387657677</v>
+        <v>2.161016221996164</v>
       </c>
       <c r="O4">
-        <v>0.9424455785831611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.261473747703576</v>
+        <v>1.004997198579787</v>
       </c>
       <c r="C5">
-        <v>0.5805731288691902</v>
+        <v>0.1212401925031088</v>
       </c>
       <c r="D5">
-        <v>0.01165089100529704</v>
+        <v>0.004339199593742293</v>
       </c>
       <c r="E5">
-        <v>0.127247797699404</v>
+        <v>0.02028948376632922</v>
       </c>
       <c r="F5">
-        <v>1.182506245564596</v>
+        <v>1.901626700153344</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.189115933895629</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.05949475698356999</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.024153676163792</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1523379484665455</v>
       </c>
       <c r="M5">
-        <v>0.8075896364210067</v>
+        <v>0.2160025283144869</v>
       </c>
       <c r="N5">
-        <v>0.7149083789842656</v>
+        <v>2.17318835554719</v>
       </c>
       <c r="O5">
-        <v>0.9135278935023052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.244568719871552</v>
+        <v>0.9992864399127939</v>
       </c>
       <c r="C6">
-        <v>0.5763149537999936</v>
+        <v>0.120376077820552</v>
       </c>
       <c r="D6">
-        <v>0.01170401636710094</v>
+        <v>0.004307918118824361</v>
       </c>
       <c r="E6">
-        <v>0.1263783905610474</v>
+        <v>0.02028503870219023</v>
       </c>
       <c r="F6">
-        <v>1.175984225877258</v>
+        <v>1.899586746557404</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.188530869500894</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.05953304980946239</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.017984075155994</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1518970813773564</v>
       </c>
       <c r="M6">
-        <v>0.8015204994512359</v>
+        <v>0.2149505684489235</v>
       </c>
       <c r="N6">
-        <v>0.7169030410756001</v>
+        <v>2.175236291606524</v>
       </c>
       <c r="O6">
-        <v>0.908763054367796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.362127065637992</v>
+        <v>1.039026662018017</v>
       </c>
       <c r="C7">
-        <v>0.6059174677618842</v>
+        <v>0.1263875512027681</v>
       </c>
       <c r="D7">
-        <v>0.0113385495654148</v>
+        <v>0.004525080080833632</v>
       </c>
       <c r="E7">
-        <v>0.1324420540523015</v>
+        <v>0.02031693259636302</v>
       </c>
       <c r="F7">
-        <v>1.221520769616532</v>
+        <v>1.913961745105695</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.192718261420133</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.05926965717794364</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.060914185355472</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.154973049998091</v>
       </c>
       <c r="M7">
-        <v>0.8437515597052467</v>
+        <v>0.2222750983664206</v>
       </c>
       <c r="N7">
-        <v>0.7031878506446461</v>
+        <v>2.161178578170194</v>
       </c>
       <c r="O7">
-        <v>0.9420530649777845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.887137609102183</v>
+        <v>1.217088565120179</v>
       </c>
       <c r="C8">
-        <v>0.7379027321555895</v>
+        <v>0.1532886715147868</v>
       </c>
       <c r="D8">
-        <v>0.009812592067921067</v>
+        <v>0.005484806324734137</v>
       </c>
       <c r="E8">
-        <v>0.1600017737849981</v>
+        <v>0.02048379494671781</v>
       </c>
       <c r="F8">
-        <v>1.429690173797965</v>
+        <v>1.982937813830148</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.214434317955529</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.05816699480789733</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.253204752123736</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1689572828939845</v>
       </c>
       <c r="M8">
-        <v>1.033063772030694</v>
+        <v>0.2551969582480176</v>
       </c>
       <c r="N8">
-        <v>0.6460232752094655</v>
+        <v>2.103116964552342</v>
       </c>
       <c r="O8">
-        <v>1.09482212029765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.948116204965629</v>
+        <v>1.5779465408975</v>
       </c>
       <c r="C9">
-        <v>1.003917375936936</v>
+        <v>0.2077824025311799</v>
       </c>
       <c r="D9">
-        <v>0.007194007971168759</v>
+        <v>0.007378712062767079</v>
       </c>
       <c r="E9">
-        <v>0.2178364970407287</v>
+        <v>0.02090895370733392</v>
       </c>
       <c r="F9">
-        <v>1.870642597683343</v>
+        <v>2.140306205127558</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.269803104642612</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.05622115765420244</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.642807190926305</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.198043900203011</v>
       </c>
       <c r="M9">
-        <v>1.418888514787085</v>
+        <v>0.3222972353531048</v>
       </c>
       <c r="N9">
-        <v>0.5475152902245384</v>
+        <v>2.004386833444698</v>
       </c>
       <c r="O9">
-        <v>1.420887011952416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.756558546647057</v>
+        <v>1.852262240619694</v>
       </c>
       <c r="C10">
-        <v>1.206286129649413</v>
+        <v>0.2492955272660708</v>
       </c>
       <c r="D10">
-        <v>0.005568460904256334</v>
+        <v>0.008785198600605781</v>
       </c>
       <c r="E10">
-        <v>0.2636355343458732</v>
+        <v>0.02128538285464732</v>
       </c>
       <c r="F10">
-        <v>2.221905204810071</v>
+        <v>2.271667763529109</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.319462060204515</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.05492570220560999</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.939062166419433</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2206234314010374</v>
       </c>
       <c r="M10">
-        <v>1.715577173439485</v>
+        <v>0.3735442744655515</v>
       </c>
       <c r="N10">
-        <v>0.4850761011199509</v>
+        <v>1.941950112732343</v>
       </c>
       <c r="O10">
-        <v>1.682458427187441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.133147689374482</v>
+        <v>1.979556830665047</v>
       </c>
       <c r="C11">
-        <v>1.30051414567788</v>
+        <v>0.2686034465332625</v>
       </c>
       <c r="D11">
-        <v>0.004912957692866371</v>
+        <v>0.009430381721294623</v>
       </c>
       <c r="E11">
-        <v>0.2854499984599954</v>
+        <v>0.02147162968888505</v>
       </c>
       <c r="F11">
-        <v>2.389525758246052</v>
+        <v>2.335398381597258</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.344292317073581</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.05436603634334958</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.076591360601952</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2312056185605229</v>
       </c>
       <c r="M11">
-        <v>1.854544203404203</v>
+        <v>0.3973782600102709</v>
       </c>
       <c r="N11">
-        <v>0.4592563155355691</v>
+        <v>1.915954423661091</v>
       </c>
       <c r="O11">
-        <v>1.807750335115429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.277263650172529</v>
+        <v>2.028166161694912</v>
       </c>
       <c r="C12">
-        <v>1.336571729524053</v>
+        <v>0.2759850564542603</v>
       </c>
       <c r="D12">
-        <v>0.004678763406412934</v>
+        <v>0.009675666675352801</v>
       </c>
       <c r="E12">
-        <v>0.2938770280483638</v>
+        <v>0.02154441495687021</v>
       </c>
       <c r="F12">
-        <v>2.454308101619461</v>
+        <v>2.360153319195859</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.354043478595685</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.05415842056020814</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.129119811512595</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2352617842918932</v>
       </c>
       <c r="M12">
-        <v>1.90785163001317</v>
+        <v>0.4064873517221912</v>
       </c>
       <c r="N12">
-        <v>0.4498924974516001</v>
+        <v>1.906476673644789</v>
       </c>
       <c r="O12">
-        <v>1.856247937652171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.246154364557299</v>
+        <v>2.017678470651958</v>
       </c>
       <c r="C13">
-        <v>1.328788277002047</v>
+        <v>0.2743920197054308</v>
       </c>
       <c r="D13">
-        <v>0.004728542559044868</v>
+        <v>0.009622793692887655</v>
       </c>
       <c r="E13">
-        <v>0.2920542729123952</v>
+        <v>0.02152863724279186</v>
       </c>
       <c r="F13">
-        <v>2.440294720235102</v>
+        <v>2.354793411323314</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.351927447843721</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.05420294138244586</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.117786015826454</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2343859690100203</v>
       </c>
       <c r="M13">
-        <v>1.896338632789053</v>
+        <v>0.4045216775815987</v>
       </c>
       <c r="N13">
-        <v>0.4518900383774564</v>
+        <v>1.908501247264837</v>
       </c>
       <c r="O13">
-        <v>1.845753769731047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.144972441605319</v>
+        <v>1.983547547443493</v>
       </c>
       <c r="C14">
-        <v>1.303472704115052</v>
+        <v>0.2692092747226411</v>
       </c>
       <c r="D14">
-        <v>0.004893396793164584</v>
+        <v>0.009450540837004695</v>
       </c>
       <c r="E14">
-        <v>0.2861398023314692</v>
+        <v>0.02147757192344368</v>
       </c>
       <c r="F14">
-        <v>2.3948280929677</v>
+        <v>2.337422225644971</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.3450874075873</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.05434886880576784</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.080903591913341</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2315383156438742</v>
       </c>
       <c r="M14">
-        <v>1.858915463268602</v>
+        <v>0.3981259409038742</v>
       </c>
       <c r="N14">
-        <v>0.458477398762831</v>
+        <v>1.915167221367469</v>
       </c>
       <c r="O14">
-        <v>1.811718264891965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.083199915642581</v>
+        <v>1.962695603741054</v>
       </c>
       <c r="C15">
-        <v>1.288017119165659</v>
+        <v>0.2660441143084142</v>
       </c>
       <c r="D15">
-        <v>0.004996265709388936</v>
+        <v>0.009345163361121678</v>
       </c>
       <c r="E15">
-        <v>0.2825395007727778</v>
+        <v>0.02144659008066885</v>
       </c>
       <c r="F15">
-        <v>2.367154648484473</v>
+        <v>2.326864378952777</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.340943890137709</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.05443881755119584</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.058372156196413</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2298005491246471</v>
       </c>
       <c r="M15">
-        <v>1.836085185720577</v>
+        <v>0.3942195359529634</v>
       </c>
       <c r="N15">
-        <v>0.4625675513003316</v>
+        <v>1.919298648581702</v>
       </c>
       <c r="O15">
-        <v>1.791012247390157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.732145005624261</v>
+        <v>1.84399745600885</v>
       </c>
       <c r="C16">
-        <v>1.200176995115271</v>
+        <v>0.2480429993183009</v>
       </c>
       <c r="D16">
-        <v>0.00561314904879584</v>
+        <v>0.008743158529441075</v>
       </c>
       <c r="E16">
-        <v>0.2622317232267122</v>
+        <v>0.02127352145816719</v>
       </c>
       <c r="F16">
-        <v>2.21112338592232</v>
+        <v>2.267586963044806</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.317886622200056</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.05496287876137274</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.930134221067021</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2199384666930797</v>
       </c>
       <c r="M16">
-        <v>1.706584792593546</v>
+        <v>0.3719978865988125</v>
       </c>
       <c r="N16">
-        <v>0.4868189442761519</v>
+        <v>1.943699107201809</v>
       </c>
       <c r="O16">
-        <v>1.674409161118106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.519206004182934</v>
+        <v>1.771852984878194</v>
       </c>
       <c r="C17">
-        <v>1.146888096413761</v>
+        <v>0.2371146469156855</v>
       </c>
       <c r="D17">
-        <v>0.006014384714128518</v>
+        <v>0.008375353856049372</v>
       </c>
       <c r="E17">
-        <v>0.250041595163502</v>
+        <v>0.02117126095215838</v>
       </c>
       <c r="F17">
-        <v>2.117530795856382</v>
+        <v>2.232274233222768</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.304333522998803</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.05529200318222038</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.852207260584493</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2139708740471491</v>
       </c>
       <c r="M17">
-        <v>1.62823791235148</v>
+        <v>0.3585051338685545</v>
       </c>
       <c r="N17">
-        <v>0.502386370097831</v>
+        <v>1.959298258907424</v>
       </c>
       <c r="O17">
-        <v>1.604588930394286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.397543579504543</v>
+        <v>1.730590439483876</v>
       </c>
       <c r="C18">
-        <v>1.116437652598307</v>
+        <v>0.2308681978867497</v>
       </c>
       <c r="D18">
-        <v>0.006252933380869408</v>
+        <v>0.008164294063856659</v>
       </c>
       <c r="E18">
-        <v>0.2431207040537018</v>
+        <v>0.02111384944086847</v>
       </c>
       <c r="F18">
-        <v>2.064423524508186</v>
+        <v>2.212334046839487</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.296747283203686</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.05548409344388183</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.807642265864047</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2105674368306651</v>
       </c>
       <c r="M18">
-        <v>1.583544253115903</v>
+        <v>0.3507929774655381</v>
       </c>
       <c r="N18">
-        <v>0.5115807467153743</v>
+        <v>1.968495736973949</v>
       </c>
       <c r="O18">
-        <v>1.565013517218958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.356483825473731</v>
+        <v>1.71665836450353</v>
       </c>
       <c r="C19">
-        <v>1.106160195656713</v>
+        <v>0.2287597310962752</v>
       </c>
       <c r="D19">
-        <v>0.006334981706836551</v>
+        <v>0.008092911738970088</v>
       </c>
       <c r="E19">
-        <v>0.2407922444235879</v>
+        <v>0.02109464950284234</v>
       </c>
       <c r="F19">
-        <v>2.046561618332419</v>
+        <v>2.20564486391514</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.294213867813546</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.05554960891609717</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.79259587149744</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2094199424273384</v>
       </c>
       <c r="M19">
-        <v>1.568472131015099</v>
+        <v>0.3481898540107338</v>
       </c>
       <c r="N19">
-        <v>0.5147339058867928</v>
+        <v>1.971647949799518</v>
       </c>
       <c r="O19">
-        <v>1.551710011102912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.541787787078874</v>
+        <v>1.77950845310761</v>
       </c>
       <c r="C20">
-        <v>1.152539666974235</v>
+        <v>0.2382738622271603</v>
       </c>
       <c r="D20">
-        <v>0.005970855341947967</v>
+        <v>0.008414455060083981</v>
       </c>
       <c r="E20">
-        <v>0.2513297111009578</v>
+        <v>0.02118200054950581</v>
       </c>
       <c r="F20">
-        <v>2.12741763850812</v>
+        <v>2.235994611874347</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.305754444349233</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.05525667854181826</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.860475805918895</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2146031071432475</v>
       </c>
       <c r="M20">
-        <v>1.636539103670557</v>
+        <v>0.3599363783904366</v>
       </c>
       <c r="N20">
-        <v>0.5007040238889928</v>
+        <v>1.957614249239086</v>
       </c>
       <c r="O20">
-        <v>1.611960043484444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.174648967770281</v>
+        <v>1.993561238773282</v>
       </c>
       <c r="C21">
-        <v>1.310897760719229</v>
+        <v>0.270729591603839</v>
       </c>
       <c r="D21">
-        <v>0.004844577064920585</v>
+        <v>0.009501107700160105</v>
       </c>
       <c r="E21">
-        <v>0.2878722897322561</v>
+        <v>0.0214925089296143</v>
       </c>
       <c r="F21">
-        <v>2.408145667615855</v>
+        <v>2.342507273941393</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.347086813825214</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.05430588874513731</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.091724226654662</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2323733770537046</v>
       </c>
       <c r="M21">
-        <v>1.869888064898404</v>
+        <v>0.4000021797055169</v>
       </c>
       <c r="N21">
-        <v>0.4565309435930658</v>
+        <v>1.913199153644811</v>
       </c>
       <c r="O21">
-        <v>1.82168549566336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.597197018399527</v>
+        <v>2.135845323388196</v>
       </c>
       <c r="C22">
-        <v>1.416618699007756</v>
+        <v>0.2923549269754915</v>
       </c>
       <c r="D22">
-        <v>0.004191432541857054</v>
+        <v>0.01021705229398862</v>
       </c>
       <c r="E22">
-        <v>0.3127392695236253</v>
+        <v>0.02170865709308334</v>
       </c>
       <c r="F22">
-        <v>2.599345339545749</v>
+        <v>2.415768801321974</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.376145092587379</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.05370968773956797</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.245503900511949</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2442746698891511</v>
       </c>
       <c r="M22">
-        <v>2.02644137672857</v>
+        <v>0.4266798379267343</v>
       </c>
       <c r="N22">
-        <v>0.4300957741967011</v>
+        <v>1.886316831697769</v>
       </c>
       <c r="O22">
-        <v>1.964969532512043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.370769123711852</v>
+        <v>2.0596711393124</v>
       </c>
       <c r="C23">
-        <v>1.359966491786963</v>
+        <v>0.2807719478222737</v>
       </c>
       <c r="D23">
-        <v>0.004531701472697769</v>
+        <v>0.009834340469748071</v>
       </c>
       <c r="E23">
-        <v>0.2993678379264537</v>
+        <v>0.02159205013564325</v>
       </c>
       <c r="F23">
-        <v>2.496524522524084</v>
+        <v>2.376316078267919</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.360439675634936</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.05402556660748559</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.163168298494753</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2378949269181589</v>
       </c>
       <c r="M23">
-        <v>1.942475889492528</v>
+        <v>0.4123933449001171</v>
       </c>
       <c r="N23">
-        <v>0.4439665274682554</v>
+        <v>1.900460978187596</v>
       </c>
       <c r="O23">
-        <v>1.887873695052377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.531576216558392</v>
+        <v>1.776046751874759</v>
       </c>
       <c r="C24">
-        <v>1.149984017089707</v>
+        <v>0.237749668274887</v>
       </c>
       <c r="D24">
-        <v>0.005990510592368992</v>
+        <v>0.008396776186870625</v>
       </c>
       <c r="E24">
-        <v>0.2507470836001602</v>
+        <v>0.02117714088835321</v>
       </c>
       <c r="F24">
-        <v>2.122945628946923</v>
+        <v>2.234311506205572</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.305111407318094</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.05527263986945741</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.856736864576988</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2143171894974785</v>
       </c>
       <c r="M24">
-        <v>1.632785055975802</v>
+        <v>0.3592891732037771</v>
       </c>
       <c r="N24">
-        <v>0.5014638542850633</v>
+        <v>1.958374877234832</v>
       </c>
       <c r="O24">
-        <v>1.608625813669136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.65678573746419</v>
+        <v>1.478870220380031</v>
       </c>
       <c r="C25">
-        <v>0.9309389724027994</v>
+        <v>0.1928132336271062</v>
       </c>
       <c r="D25">
-        <v>0.007855756396995872</v>
+        <v>0.006864348383750496</v>
       </c>
       <c r="E25">
-        <v>0.2016893490846883</v>
+        <v>0.02078302653290631</v>
       </c>
       <c r="F25">
-        <v>1.747141878596025</v>
+        <v>2.095144051441508</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.253339019658711</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.05672417010475783</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.535834425484978</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1899778303055797</v>
       </c>
       <c r="M25">
-        <v>1.312534792948426</v>
+        <v>0.3038334489720853</v>
       </c>
       <c r="N25">
-        <v>0.5725508824185397</v>
+        <v>2.029390211554329</v>
       </c>
       <c r="O25">
-        <v>1.329277661514467</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_59/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.266053372567256</v>
+        <v>1.414393096871265</v>
       </c>
       <c r="C2">
-        <v>0.1606810873135771</v>
+        <v>0.07513119594463546</v>
       </c>
       <c r="D2">
-        <v>0.005745396096269673</v>
+        <v>0.01161827540880012</v>
       </c>
       <c r="E2">
-        <v>0.02053548684510531</v>
+        <v>0.06358328784665535</v>
       </c>
       <c r="F2">
-        <v>2.003044937880659</v>
+        <v>3.767704608165204</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,22 +442,22 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.2211426106186</v>
+        <v>2.378409290992231</v>
       </c>
       <c r="J2">
-        <v>0.05788280501990162</v>
+        <v>0.1458084058797553</v>
       </c>
       <c r="K2">
-        <v>1.306071289300064</v>
+        <v>1.245497301426099</v>
       </c>
       <c r="L2">
-        <v>0.1728521528125455</v>
+        <v>0.3418581033705408</v>
       </c>
       <c r="M2">
-        <v>0.2642752963065007</v>
+        <v>0.3636948708781311</v>
       </c>
       <c r="N2">
-        <v>2.088378956465235</v>
+        <v>4.004334293927457</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.124876761536115</v>
+        <v>1.385652285263262</v>
       </c>
       <c r="C3">
-        <v>0.1393627634175942</v>
+        <v>0.06958702017958274</v>
       </c>
       <c r="D3">
-        <v>0.004990333623178245</v>
+        <v>0.01145343688959599</v>
       </c>
       <c r="E3">
-        <v>0.02039288758769597</v>
+        <v>0.06374172123281863</v>
       </c>
       <c r="F3">
-        <v>1.94634837999935</v>
+        <v>3.769346261606415</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,22 +489,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.202626298353707</v>
+        <v>2.382981102763637</v>
       </c>
       <c r="J3">
-        <v>0.05872338836122282</v>
+        <v>0.1463132986269713</v>
       </c>
       <c r="K3">
-        <v>1.153634761052558</v>
+        <v>1.212520268991398</v>
       </c>
       <c r="L3">
-        <v>0.1616773012771802</v>
+        <v>0.3407908606220573</v>
       </c>
       <c r="M3">
-        <v>0.2381284682833247</v>
+        <v>0.3590000546155672</v>
       </c>
       <c r="N3">
-        <v>2.132247747246495</v>
+        <v>4.024153980476534</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.039493058817783</v>
+        <v>1.368732865380878</v>
       </c>
       <c r="C4">
-        <v>0.1264580798049053</v>
+        <v>0.06622488733900411</v>
       </c>
       <c r="D4">
-        <v>0.004527621650472824</v>
+        <v>0.01135633486471832</v>
       </c>
       <c r="E4">
-        <v>0.02031731991106422</v>
+        <v>0.06385006569860163</v>
       </c>
       <c r="F4">
-        <v>1.914132886286367</v>
+        <v>3.771710713770659</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,22 +536,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.192768980287077</v>
+        <v>2.386574929847733</v>
       </c>
       <c r="J4">
-        <v>0.05926660770191106</v>
+        <v>0.1466427731050377</v>
       </c>
       <c r="K4">
-        <v>1.061417978181566</v>
+        <v>1.192950057887913</v>
       </c>
       <c r="L4">
-        <v>0.1550092589700611</v>
+        <v>0.3402659181188312</v>
       </c>
       <c r="M4">
-        <v>0.2223611158019878</v>
+        <v>0.3562897929574511</v>
       </c>
       <c r="N4">
-        <v>2.161016221996164</v>
+        <v>4.037206725149581</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.004997198579787</v>
+        <v>1.362021437494121</v>
       </c>
       <c r="C5">
-        <v>0.1212401925031088</v>
+        <v>0.06486530894528642</v>
       </c>
       <c r="D5">
-        <v>0.004339199593742293</v>
+        <v>0.01131780850607278</v>
       </c>
       <c r="E5">
-        <v>0.02028948376632922</v>
+        <v>0.06389700823585986</v>
       </c>
       <c r="F5">
-        <v>1.901626700153344</v>
+        <v>3.773015631818609</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,22 +583,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.189115933895629</v>
+        <v>2.388237422814505</v>
       </c>
       <c r="J5">
-        <v>0.05949475698356999</v>
+        <v>0.1467819426259913</v>
       </c>
       <c r="K5">
-        <v>1.024153676163792</v>
+        <v>1.185145767169672</v>
       </c>
       <c r="L5">
-        <v>0.1523379484665455</v>
+        <v>0.3400848518811301</v>
       </c>
       <c r="M5">
-        <v>0.2160025283144869</v>
+        <v>0.3552287840750701</v>
       </c>
       <c r="N5">
-        <v>2.17318835554719</v>
+        <v>4.042748035554332</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9992864399127939</v>
+        <v>1.360918097843694</v>
       </c>
       <c r="C6">
-        <v>0.120376077820552</v>
+        <v>0.06464018590206422</v>
       </c>
       <c r="D6">
-        <v>0.004307918118824361</v>
+        <v>0.01131147455965298</v>
       </c>
       <c r="E6">
-        <v>0.02028503870219023</v>
+        <v>0.06390497185235322</v>
       </c>
       <c r="F6">
-        <v>1.899586746557404</v>
+        <v>3.773252939854189</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,22 +630,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.188530869500894</v>
+        <v>2.388525440517675</v>
       </c>
       <c r="J6">
-        <v>0.05953304980946239</v>
+        <v>0.1468053482398153</v>
       </c>
       <c r="K6">
-        <v>1.017984075155994</v>
+        <v>1.183860190781644</v>
       </c>
       <c r="L6">
-        <v>0.1518970813773564</v>
+        <v>0.3400567723661325</v>
       </c>
       <c r="M6">
-        <v>0.2149505684489235</v>
+        <v>0.3550552312676025</v>
       </c>
       <c r="N6">
-        <v>2.175236291606524</v>
+        <v>4.043681589290287</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.039026662018017</v>
+        <v>1.368641609684488</v>
       </c>
       <c r="C7">
-        <v>0.1263875512027681</v>
+        <v>0.06620650906393166</v>
       </c>
       <c r="D7">
-        <v>0.004525080080833632</v>
+        <v>0.011355811045755</v>
       </c>
       <c r="E7">
-        <v>0.02031693259636302</v>
+        <v>0.0638506874685465</v>
       </c>
       <c r="F7">
-        <v>1.913961745105695</v>
+        <v>3.771726929723016</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.192718261420133</v>
+        <v>2.386596549001709</v>
       </c>
       <c r="J7">
-        <v>0.05926965717794364</v>
+        <v>0.1466446301156275</v>
       </c>
       <c r="K7">
-        <v>1.060914185355472</v>
+        <v>1.192844114838067</v>
       </c>
       <c r="L7">
-        <v>0.154973049998091</v>
+        <v>0.3402633430795063</v>
       </c>
       <c r="M7">
-        <v>0.2222750983664206</v>
+        <v>0.3562753077818179</v>
       </c>
       <c r="N7">
-        <v>2.161178578170194</v>
+        <v>4.037280557383752</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.217088565120179</v>
+        <v>1.404332501681552</v>
       </c>
       <c r="C8">
-        <v>0.1532886715147868</v>
+        <v>0.07321081431442167</v>
       </c>
       <c r="D8">
-        <v>0.005484806324734137</v>
+        <v>0.01156059212550531</v>
       </c>
       <c r="E8">
-        <v>0.02048379494671781</v>
+        <v>0.06363562419008417</v>
       </c>
       <c r="F8">
-        <v>1.982937813830148</v>
+        <v>3.767989280403299</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.214434317955529</v>
+        <v>2.379822457075647</v>
       </c>
       <c r="J8">
-        <v>0.05816699480789733</v>
+        <v>0.1459784586040103</v>
       </c>
       <c r="K8">
-        <v>1.253204752123736</v>
+        <v>1.233986296130496</v>
       </c>
       <c r="L8">
-        <v>0.1689572828939845</v>
+        <v>0.3414631078908954</v>
       </c>
       <c r="M8">
-        <v>0.2551969582480176</v>
+        <v>0.3620403792188576</v>
       </c>
       <c r="N8">
-        <v>2.103116964552342</v>
+        <v>4.010984824322307</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.5779465408975</v>
+        <v>1.480081863560201</v>
       </c>
       <c r="C9">
-        <v>0.2077824025311799</v>
+        <v>0.08728246959225316</v>
       </c>
       <c r="D9">
-        <v>0.007378712062767079</v>
+        <v>0.01199436428522915</v>
       </c>
       <c r="E9">
-        <v>0.02090895370733392</v>
+        <v>0.06330131184923449</v>
       </c>
       <c r="F9">
-        <v>2.140306205127558</v>
+        <v>3.771413321634995</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.269803104642612</v>
+        <v>2.372775455262989</v>
       </c>
       <c r="J9">
-        <v>0.05622115765420244</v>
+        <v>0.1448260928000575</v>
       </c>
       <c r="K9">
-        <v>1.642807190926305</v>
+        <v>1.320037491808392</v>
       </c>
       <c r="L9">
-        <v>0.198043900203011</v>
+        <v>0.3448472720326734</v>
       </c>
       <c r="M9">
-        <v>0.3222972353531048</v>
+        <v>0.3747100147999234</v>
       </c>
       <c r="N9">
-        <v>2.004386833444698</v>
+        <v>3.966424602519893</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.852262240619694</v>
+        <v>1.539236436787775</v>
       </c>
       <c r="C10">
-        <v>0.2492955272660708</v>
+        <v>0.0978309879610606</v>
       </c>
       <c r="D10">
-        <v>0.008785198600605781</v>
+        <v>0.0123321862371597</v>
       </c>
       <c r="E10">
-        <v>0.02128538285464732</v>
+        <v>0.06310849629421522</v>
       </c>
       <c r="F10">
-        <v>2.271667763529109</v>
+        <v>3.78047682114493</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.319462060204515</v>
+        <v>2.371395330883885</v>
       </c>
       <c r="J10">
-        <v>0.05492570220560999</v>
+        <v>0.144072664776548</v>
       </c>
       <c r="K10">
-        <v>1.939062166419433</v>
+        <v>1.386533597482497</v>
       </c>
       <c r="L10">
-        <v>0.2206234314010374</v>
+        <v>0.3479592734738333</v>
       </c>
       <c r="M10">
-        <v>0.3735442744655515</v>
+        <v>0.3848471188867819</v>
       </c>
       <c r="N10">
-        <v>1.941950112732343</v>
+        <v>3.937952070596324</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.979556830665047</v>
+        <v>1.566906207619013</v>
       </c>
       <c r="C11">
-        <v>0.2686034465332625</v>
+        <v>0.1026765632283002</v>
       </c>
       <c r="D11">
-        <v>0.009430381721294623</v>
+        <v>0.01248992391124659</v>
       </c>
       <c r="E11">
-        <v>0.02147162968888505</v>
+        <v>0.06303214242176036</v>
       </c>
       <c r="F11">
-        <v>2.335398381597258</v>
+        <v>3.786020607849508</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.344292317073581</v>
+        <v>2.371591185374314</v>
       </c>
       <c r="J11">
-        <v>0.05436603634334958</v>
+        <v>0.143750011023883</v>
       </c>
       <c r="K11">
-        <v>2.076591360601952</v>
+        <v>1.417495914043229</v>
       </c>
       <c r="L11">
-        <v>0.2312056185605229</v>
+        <v>0.3495102468375251</v>
       </c>
       <c r="M11">
-        <v>0.3973782600102709</v>
+        <v>0.3896381665626407</v>
       </c>
       <c r="N11">
-        <v>1.915954423661091</v>
+        <v>3.925924507755767</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.028166161694912</v>
+        <v>1.577493034188706</v>
       </c>
       <c r="C12">
-        <v>0.2759850564542603</v>
+        <v>0.1045182850903075</v>
       </c>
       <c r="D12">
-        <v>0.009675666675352801</v>
+        <v>0.01255022999209388</v>
       </c>
       <c r="E12">
-        <v>0.02154441495687021</v>
+        <v>0.06300485413342471</v>
       </c>
       <c r="F12">
-        <v>2.360153319195859</v>
+        <v>3.788324018584603</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.354043478595685</v>
+        <v>2.371783695792701</v>
       </c>
       <c r="J12">
-        <v>0.05415842056020814</v>
+        <v>0.143630707940881</v>
       </c>
       <c r="K12">
-        <v>2.129119811512595</v>
+        <v>1.429322913603613</v>
       </c>
       <c r="L12">
-        <v>0.2352617842918932</v>
+        <v>0.350116954193382</v>
       </c>
       <c r="M12">
-        <v>0.4064873517221912</v>
+        <v>0.3914781673295025</v>
       </c>
       <c r="N12">
-        <v>1.906476673644789</v>
+        <v>3.921502910547275</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.017678470651958</v>
+        <v>1.575208135486548</v>
       </c>
       <c r="C13">
-        <v>0.2743920197054308</v>
+        <v>0.1041213337799149</v>
       </c>
       <c r="D13">
-        <v>0.009622793692887655</v>
+        <v>0.01253721661163354</v>
       </c>
       <c r="E13">
-        <v>0.02152863724279186</v>
+        <v>0.06301065899922076</v>
       </c>
       <c r="F13">
-        <v>2.354793411323314</v>
+        <v>3.787818863707514</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.351927447843721</v>
+        <v>2.371736973379143</v>
       </c>
       <c r="J13">
-        <v>0.05420294138244586</v>
+        <v>0.1436562741010636</v>
       </c>
       <c r="K13">
-        <v>2.117786015826454</v>
+        <v>1.42677121469481</v>
       </c>
       <c r="L13">
-        <v>0.2343859690100203</v>
+        <v>0.3499854277551435</v>
       </c>
       <c r="M13">
-        <v>0.4045216775815987</v>
+        <v>0.3910807471823361</v>
       </c>
       <c r="N13">
-        <v>1.908501247264837</v>
+        <v>3.922449266193539</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.983547547443493</v>
+        <v>1.567775012338871</v>
       </c>
       <c r="C14">
-        <v>0.2692092747226411</v>
+        <v>0.1028279460768999</v>
       </c>
       <c r="D14">
-        <v>0.009450540837004695</v>
+        <v>0.01249487387466885</v>
       </c>
       <c r="E14">
-        <v>0.02147757192344368</v>
+        <v>0.06302986487150974</v>
       </c>
       <c r="F14">
-        <v>2.337422225644971</v>
+        <v>3.786206021541332</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,22 +1006,22 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.3450874075873</v>
+        <v>2.371604652082326</v>
       </c>
       <c r="J14">
-        <v>0.05434886880576784</v>
+        <v>0.1437401382427126</v>
       </c>
       <c r="K14">
-        <v>2.080903591913341</v>
+        <v>1.418466880879237</v>
       </c>
       <c r="L14">
-        <v>0.2315383156438742</v>
+        <v>0.3495597728626194</v>
       </c>
       <c r="M14">
-        <v>0.3981259409038742</v>
+        <v>0.3897890293091351</v>
       </c>
       <c r="N14">
-        <v>1.915167221367469</v>
+        <v>3.925558075141879</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.962695603741054</v>
+        <v>1.563236177671342</v>
       </c>
       <c r="C15">
-        <v>0.2660441143084142</v>
+        <v>0.1020365967794135</v>
       </c>
       <c r="D15">
-        <v>0.009345163361121678</v>
+        <v>0.01246901222572561</v>
       </c>
       <c r="E15">
-        <v>0.02144659008066885</v>
+        <v>0.0630418404401567</v>
       </c>
       <c r="F15">
-        <v>2.326864378952777</v>
+        <v>3.785244682885221</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.340943890137709</v>
+        <v>2.371539010511825</v>
       </c>
       <c r="J15">
-        <v>0.05443881755119584</v>
+        <v>0.1437918820951154</v>
       </c>
       <c r="K15">
-        <v>2.058372156196413</v>
+        <v>1.413393543551138</v>
       </c>
       <c r="L15">
-        <v>0.2298005491246471</v>
+        <v>0.3493015697001596</v>
       </c>
       <c r="M15">
-        <v>0.3942195359529634</v>
+        <v>0.3890011634523987</v>
       </c>
       <c r="N15">
-        <v>1.919298648581702</v>
+        <v>3.927479628473151</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.84399745600885</v>
+        <v>1.537443411343048</v>
       </c>
       <c r="C16">
-        <v>0.2480429993183009</v>
+        <v>0.09751526818618572</v>
       </c>
       <c r="D16">
-        <v>0.008743158529441075</v>
+        <v>0.0123219585895491</v>
       </c>
       <c r="E16">
-        <v>0.02127352145816719</v>
+        <v>0.06311371407303046</v>
       </c>
       <c r="F16">
-        <v>2.267586963044806</v>
+        <v>3.780143093348471</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,22 +1100,22 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.317886622200056</v>
+        <v>2.371399097304412</v>
       </c>
       <c r="J16">
-        <v>0.05496287876137274</v>
+        <v>0.1440941543174361</v>
       </c>
       <c r="K16">
-        <v>1.930134221067021</v>
+        <v>1.38452445937935</v>
       </c>
       <c r="L16">
-        <v>0.2199384666930797</v>
+        <v>0.3478606304908993</v>
       </c>
       <c r="M16">
-        <v>0.3719978865988125</v>
+        <v>0.3845376190677783</v>
       </c>
       <c r="N16">
-        <v>1.943699107201809</v>
+        <v>3.938756708394195</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.771852984878194</v>
+        <v>1.521814760773111</v>
       </c>
       <c r="C17">
-        <v>0.2371146469156855</v>
+        <v>0.09475365245425849</v>
       </c>
       <c r="D17">
-        <v>0.008375353856049372</v>
+        <v>0.01223277906380105</v>
       </c>
       <c r="E17">
-        <v>0.02117126095215838</v>
+        <v>0.06316070969875476</v>
       </c>
       <c r="F17">
-        <v>2.232274233222768</v>
+        <v>3.777377176514619</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,22 +1147,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.304333522998803</v>
+        <v>2.371524157595402</v>
       </c>
       <c r="J17">
-        <v>0.05529200318222038</v>
+        <v>0.1442847260495235</v>
       </c>
       <c r="K17">
-        <v>1.852207260584493</v>
+        <v>1.366996608479354</v>
       </c>
       <c r="L17">
-        <v>0.2139708740471491</v>
+        <v>0.347011266862097</v>
       </c>
       <c r="M17">
-        <v>0.3585051338685545</v>
+        <v>0.3818453182075032</v>
       </c>
       <c r="N17">
-        <v>1.959298258907424</v>
+        <v>3.945911680021368</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.730590439483876</v>
+        <v>1.512897139010875</v>
       </c>
       <c r="C18">
-        <v>0.2308681978867497</v>
+        <v>0.09316966517822323</v>
       </c>
       <c r="D18">
-        <v>0.008164294063856659</v>
+        <v>0.01218186814721633</v>
       </c>
       <c r="E18">
-        <v>0.02111384944086847</v>
+        <v>0.06318880997465204</v>
       </c>
       <c r="F18">
-        <v>2.212334046839487</v>
+        <v>3.775920034399419</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.296747283203686</v>
+        <v>2.371673623390066</v>
       </c>
       <c r="J18">
-        <v>0.05548409344388183</v>
+        <v>0.1443962288574614</v>
       </c>
       <c r="K18">
-        <v>1.807642265864047</v>
+        <v>1.356982170309095</v>
       </c>
       <c r="L18">
-        <v>0.2105674368306651</v>
+        <v>0.346535475365485</v>
       </c>
       <c r="M18">
-        <v>0.3507929774655381</v>
+        <v>0.3803136910709881</v>
       </c>
       <c r="N18">
-        <v>1.968495736973949</v>
+        <v>3.950114070315564</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.71665836450353</v>
+        <v>1.509890089377052</v>
       </c>
       <c r="C19">
-        <v>0.2287597310962752</v>
+        <v>0.09263411213575523</v>
       </c>
       <c r="D19">
-        <v>0.008092911738970088</v>
+        <v>0.01216469662791297</v>
       </c>
       <c r="E19">
-        <v>0.02109464950284234</v>
+        <v>0.06319850820475192</v>
       </c>
       <c r="F19">
-        <v>2.20564486391514</v>
+        <v>3.77544964740261</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.294213867813546</v>
+        <v>2.371737549639242</v>
       </c>
       <c r="J19">
-        <v>0.05554960891609717</v>
+        <v>0.1444343068544161</v>
       </c>
       <c r="K19">
-        <v>1.79259587149744</v>
+        <v>1.353602989561466</v>
       </c>
       <c r="L19">
-        <v>0.2094199424273384</v>
+        <v>0.3463765707806914</v>
       </c>
       <c r="M19">
-        <v>0.3481898540107338</v>
+        <v>0.3797980161985564</v>
       </c>
       <c r="N19">
-        <v>1.971647949799518</v>
+        <v>3.951551876601471</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.77950845310761</v>
+        <v>1.523471053613235</v>
       </c>
       <c r="C20">
-        <v>0.2382738622271603</v>
+        <v>0.09504717324706746</v>
       </c>
       <c r="D20">
-        <v>0.008414455060083981</v>
+        <v>0.01224223283035997</v>
       </c>
       <c r="E20">
-        <v>0.02118200054950581</v>
+        <v>0.0631555962901782</v>
       </c>
       <c r="F20">
-        <v>2.235994611874347</v>
+        <v>3.777657772966151</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.305754444349233</v>
+        <v>2.371502820914785</v>
       </c>
       <c r="J20">
-        <v>0.05525667854181826</v>
+        <v>0.1442642437202544</v>
       </c>
       <c r="K20">
-        <v>1.860475805918895</v>
+        <v>1.368855533644734</v>
       </c>
       <c r="L20">
-        <v>0.2146031071432475</v>
+        <v>0.3471003650358568</v>
       </c>
       <c r="M20">
-        <v>0.3599363783904366</v>
+        <v>0.3821301684794634</v>
       </c>
       <c r="N20">
-        <v>1.957614249239086</v>
+        <v>3.945141012748081</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.993561238773282</v>
+        <v>1.569955348942699</v>
       </c>
       <c r="C21">
-        <v>0.270729591603839</v>
+        <v>0.1032076602479606</v>
       </c>
       <c r="D21">
-        <v>0.009501107700160105</v>
+        <v>0.01250729545467166</v>
       </c>
       <c r="E21">
-        <v>0.0214925089296143</v>
+        <v>0.06302417959642526</v>
       </c>
       <c r="F21">
-        <v>2.342507273941393</v>
+        <v>3.786674214794971</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.347086813825214</v>
+        <v>2.371640306997321</v>
       </c>
       <c r="J21">
-        <v>0.05430588874513731</v>
+        <v>0.1437154272524879</v>
       </c>
       <c r="K21">
-        <v>2.091724226654662</v>
+        <v>1.42090329235441</v>
       </c>
       <c r="L21">
-        <v>0.2323733770537046</v>
+        <v>0.3496842724075435</v>
       </c>
       <c r="M21">
-        <v>0.4000021797055169</v>
+        <v>0.3901677404762012</v>
       </c>
       <c r="N21">
-        <v>1.913199153644811</v>
+        <v>3.924641333507438</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.135845323388196</v>
+        <v>1.600969999031065</v>
       </c>
       <c r="C22">
-        <v>0.2923549269754915</v>
+        <v>0.1085807134527386</v>
       </c>
       <c r="D22">
-        <v>0.01021705229398862</v>
+        <v>0.0126838719714506</v>
       </c>
       <c r="E22">
-        <v>0.02170865709308334</v>
+        <v>0.06294776075778863</v>
       </c>
       <c r="F22">
-        <v>2.415768801321974</v>
+        <v>3.793756534590628</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.376145092587379</v>
+        <v>2.372419920501258</v>
       </c>
       <c r="J22">
-        <v>0.05370968773956797</v>
+        <v>0.1433735201175157</v>
       </c>
       <c r="K22">
-        <v>2.245503900511949</v>
+        <v>1.455515332997862</v>
       </c>
       <c r="L22">
-        <v>0.2442746698891511</v>
+        <v>0.3514859778502313</v>
       </c>
       <c r="M22">
-        <v>0.4266798379267343</v>
+        <v>0.3955707178915162</v>
       </c>
       <c r="N22">
-        <v>1.886316831697769</v>
+        <v>3.912018721001644</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.0596711393124</v>
+        <v>1.584358976894691</v>
       </c>
       <c r="C23">
-        <v>0.2807719478222737</v>
+        <v>0.1057093647563363</v>
       </c>
       <c r="D23">
-        <v>0.009834340469748071</v>
+        <v>0.0125893270558386</v>
       </c>
       <c r="E23">
-        <v>0.02159205013564325</v>
+        <v>0.06298768313292857</v>
       </c>
       <c r="F23">
-        <v>2.376316078267919</v>
+        <v>3.789867789205204</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,22 +1429,22 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.360439675634936</v>
+        <v>2.37194074539822</v>
       </c>
       <c r="J23">
-        <v>0.05402556660748559</v>
+        <v>0.1435544703982856</v>
       </c>
       <c r="K23">
-        <v>2.163168298494753</v>
+        <v>1.436987807138365</v>
       </c>
       <c r="L23">
-        <v>0.2378949269181589</v>
+        <v>0.3505140596673044</v>
       </c>
       <c r="M23">
-        <v>0.4123933449001171</v>
+        <v>0.3926733571748926</v>
       </c>
       <c r="N23">
-        <v>1.900460978187596</v>
+        <v>3.918684721567999</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.776046751874759</v>
+        <v>1.522722033338255</v>
       </c>
       <c r="C24">
-        <v>0.237749668274887</v>
+        <v>0.09491446096875222</v>
       </c>
       <c r="D24">
-        <v>0.008396776186870625</v>
+        <v>0.01223795766197711</v>
       </c>
       <c r="E24">
-        <v>0.02117714088835321</v>
+        <v>0.06315790469205851</v>
       </c>
       <c r="F24">
-        <v>2.234311506205572</v>
+        <v>3.777530500928677</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.305111407318094</v>
+        <v>2.371512225592213</v>
       </c>
       <c r="J24">
-        <v>0.05527263986945741</v>
+        <v>0.1442734977359503</v>
       </c>
       <c r="K24">
-        <v>1.856736864576988</v>
+        <v>1.368014918697611</v>
       </c>
       <c r="L24">
-        <v>0.2143171894974785</v>
+        <v>0.3470600447513306</v>
       </c>
       <c r="M24">
-        <v>0.3592891732037771</v>
+        <v>0.3820013371638069</v>
       </c>
       <c r="N24">
-        <v>1.958374877234832</v>
+        <v>3.94548915447416</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.478870220380031</v>
+        <v>1.458974061452636</v>
       </c>
       <c r="C25">
-        <v>0.1928132336271062</v>
+        <v>0.08343919201762162</v>
       </c>
       <c r="D25">
-        <v>0.006864348383750496</v>
+        <v>0.01187362266945158</v>
       </c>
       <c r="E25">
-        <v>0.02078302653290631</v>
+        <v>0.06338244389136793</v>
       </c>
       <c r="F25">
-        <v>2.095144051441508</v>
+        <v>3.769336608620051</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,22 +1523,22 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.253339019658711</v>
+        <v>2.374014663730335</v>
       </c>
       <c r="J25">
-        <v>0.05672417010475783</v>
+        <v>0.1451214210619156</v>
       </c>
       <c r="K25">
-        <v>1.535834425484978</v>
+        <v>1.29618335090791</v>
       </c>
       <c r="L25">
-        <v>0.1899778303055797</v>
+        <v>0.343821669937725</v>
       </c>
       <c r="M25">
-        <v>0.3038334489720853</v>
+        <v>0.3711367947434852</v>
       </c>
       <c r="N25">
-        <v>2.029390211554329</v>
+        <v>3.977729850541863</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_59/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.414393096871265</v>
+        <v>1.266053372567256</v>
       </c>
       <c r="C2">
-        <v>0.07513119594463546</v>
+        <v>0.1606810873134634</v>
       </c>
       <c r="D2">
-        <v>0.01161827540880012</v>
+        <v>0.005745396096269673</v>
       </c>
       <c r="E2">
-        <v>0.06358328784665535</v>
+        <v>0.02053548684510531</v>
       </c>
       <c r="F2">
-        <v>3.767704608165204</v>
+        <v>2.003044937880659</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,22 +442,22 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.378409290992231</v>
+        <v>1.2211426106186</v>
       </c>
       <c r="J2">
-        <v>0.1458084058797553</v>
+        <v>0.057882805019978</v>
       </c>
       <c r="K2">
-        <v>1.245497301426099</v>
+        <v>1.306071289300235</v>
       </c>
       <c r="L2">
-        <v>0.3418581033705408</v>
+        <v>0.1728521528125171</v>
       </c>
       <c r="M2">
-        <v>0.3636948708781311</v>
+        <v>0.2642752963064865</v>
       </c>
       <c r="N2">
-        <v>4.004334293927457</v>
+        <v>2.088378956465235</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.385652285263262</v>
+        <v>1.124876761536285</v>
       </c>
       <c r="C3">
-        <v>0.06958702017958274</v>
+        <v>0.1393627634178927</v>
       </c>
       <c r="D3">
-        <v>0.01145343688959599</v>
+        <v>0.004990333622927778</v>
       </c>
       <c r="E3">
-        <v>0.06374172123281863</v>
+        <v>0.02039288758767732</v>
       </c>
       <c r="F3">
-        <v>3.769346261606415</v>
+        <v>1.946348379999336</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,22 +489,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.382981102763637</v>
+        <v>1.202626298353692</v>
       </c>
       <c r="J3">
-        <v>0.1463132986269713</v>
+        <v>0.05872338836127167</v>
       </c>
       <c r="K3">
-        <v>1.212520268991398</v>
+        <v>1.15363476105253</v>
       </c>
       <c r="L3">
-        <v>0.3407908606220573</v>
+        <v>0.1616773012772086</v>
       </c>
       <c r="M3">
-        <v>0.3590000546155672</v>
+        <v>0.2381284682833176</v>
       </c>
       <c r="N3">
-        <v>4.024153980476534</v>
+        <v>2.132247747246467</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.368732865380878</v>
+        <v>1.039493058817897</v>
       </c>
       <c r="C4">
-        <v>0.06622488733900411</v>
+        <v>0.1264580798046069</v>
       </c>
       <c r="D4">
-        <v>0.01135633486471832</v>
+        <v>0.004527621650666447</v>
       </c>
       <c r="E4">
-        <v>0.06385006569860163</v>
+        <v>0.02031731991102959</v>
       </c>
       <c r="F4">
-        <v>3.771710713770659</v>
+        <v>1.914132886286367</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,22 +536,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.386574929847733</v>
+        <v>1.192768980287084</v>
       </c>
       <c r="J4">
-        <v>0.1466427731050377</v>
+        <v>0.05926660770193859</v>
       </c>
       <c r="K4">
-        <v>1.192950057887913</v>
+        <v>1.061417978181538</v>
       </c>
       <c r="L4">
-        <v>0.3402659181188312</v>
+        <v>0.1550092589700824</v>
       </c>
       <c r="M4">
-        <v>0.3562897929574511</v>
+        <v>0.2223611158019807</v>
       </c>
       <c r="N4">
-        <v>4.037206725149581</v>
+        <v>2.161016221996093</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.362021437494121</v>
+        <v>1.004997198579787</v>
       </c>
       <c r="C5">
-        <v>0.06486530894528642</v>
+        <v>0.1212401925033362</v>
       </c>
       <c r="D5">
-        <v>0.01131780850607278</v>
+        <v>0.004339199593660581</v>
       </c>
       <c r="E5">
-        <v>0.06389700823585986</v>
+        <v>0.02028948376631146</v>
       </c>
       <c r="F5">
-        <v>3.773015631818609</v>
+        <v>1.901626700153315</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,22 +583,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.388237422814505</v>
+        <v>1.189115933895636</v>
       </c>
       <c r="J5">
-        <v>0.1467819426259913</v>
+        <v>0.05949475698354867</v>
       </c>
       <c r="K5">
-        <v>1.185145767169672</v>
+        <v>1.024153676163905</v>
       </c>
       <c r="L5">
-        <v>0.3400848518811301</v>
+        <v>0.1523379484664957</v>
       </c>
       <c r="M5">
-        <v>0.3552287840750701</v>
+        <v>0.2160025283144833</v>
       </c>
       <c r="N5">
-        <v>4.042748035554332</v>
+        <v>2.173188355547161</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.360918097843694</v>
+        <v>0.9992864399128507</v>
       </c>
       <c r="C6">
-        <v>0.06464018590206422</v>
+        <v>0.1203760778204241</v>
       </c>
       <c r="D6">
-        <v>0.01131147455965298</v>
+        <v>0.004307918118811926</v>
       </c>
       <c r="E6">
-        <v>0.06390497185235322</v>
+        <v>0.02028503870222043</v>
       </c>
       <c r="F6">
-        <v>3.773252939854189</v>
+        <v>1.899586746557389</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,22 +630,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.388525440517675</v>
+        <v>1.188530869500887</v>
       </c>
       <c r="J6">
-        <v>0.1468053482398153</v>
+        <v>0.05953304980950325</v>
       </c>
       <c r="K6">
-        <v>1.183860190781644</v>
+        <v>1.017984075155994</v>
       </c>
       <c r="L6">
-        <v>0.3400567723661325</v>
+        <v>0.151897081377335</v>
       </c>
       <c r="M6">
-        <v>0.3550552312676025</v>
+        <v>0.214950568448927</v>
       </c>
       <c r="N6">
-        <v>4.043681589290287</v>
+        <v>2.175236291606495</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.368641609684488</v>
+        <v>1.039026662018216</v>
       </c>
       <c r="C7">
-        <v>0.06620650906393166</v>
+        <v>0.126387551202626</v>
       </c>
       <c r="D7">
-        <v>0.011355811045755</v>
+        <v>0.004525080080904686</v>
       </c>
       <c r="E7">
-        <v>0.0638506874685465</v>
+        <v>0.02031693259636036</v>
       </c>
       <c r="F7">
-        <v>3.771726929723016</v>
+        <v>1.913961745105695</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.386596549001709</v>
+        <v>1.19271826142014</v>
       </c>
       <c r="J7">
-        <v>0.1466446301156275</v>
+        <v>0.05926965717799515</v>
       </c>
       <c r="K7">
-        <v>1.192844114838067</v>
+        <v>1.060914185355557</v>
       </c>
       <c r="L7">
-        <v>0.3402633430795063</v>
+        <v>0.1549730499980768</v>
       </c>
       <c r="M7">
-        <v>0.3562753077818179</v>
+        <v>0.2222750983664135</v>
       </c>
       <c r="N7">
-        <v>4.037280557383752</v>
+        <v>2.161178578170144</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.404332501681552</v>
+        <v>1.217088565120264</v>
       </c>
       <c r="C8">
-        <v>0.07321081431442167</v>
+        <v>0.1532886715149289</v>
       </c>
       <c r="D8">
-        <v>0.01156059212550531</v>
+        <v>0.005484806325014802</v>
       </c>
       <c r="E8">
-        <v>0.06363562419008417</v>
+        <v>0.02048379494671693</v>
       </c>
       <c r="F8">
-        <v>3.767989280403299</v>
+        <v>1.982937813830134</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.379822457075647</v>
+        <v>1.214434317955522</v>
       </c>
       <c r="J8">
-        <v>0.1459784586040103</v>
+        <v>0.05816699480789111</v>
       </c>
       <c r="K8">
-        <v>1.233986296130496</v>
+        <v>1.253204752123708</v>
       </c>
       <c r="L8">
-        <v>0.3414631078908954</v>
+        <v>0.1689572828940058</v>
       </c>
       <c r="M8">
-        <v>0.3620403792188576</v>
+        <v>0.2551969582480176</v>
       </c>
       <c r="N8">
-        <v>4.010984824322307</v>
+        <v>2.103116964552299</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.480081863560201</v>
+        <v>1.5779465408975</v>
       </c>
       <c r="C9">
-        <v>0.08728246959225316</v>
+        <v>0.2077824025311656</v>
       </c>
       <c r="D9">
-        <v>0.01199436428522915</v>
+        <v>0.007378712062521942</v>
       </c>
       <c r="E9">
-        <v>0.06330131184923449</v>
+        <v>0.02090895370733215</v>
       </c>
       <c r="F9">
-        <v>3.771413321634995</v>
+        <v>2.14030620512753</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.372775455262989</v>
+        <v>1.269803104642619</v>
       </c>
       <c r="J9">
-        <v>0.1448260928000575</v>
+        <v>0.05622115765413405</v>
       </c>
       <c r="K9">
-        <v>1.320037491808392</v>
+        <v>1.642807190926334</v>
       </c>
       <c r="L9">
-        <v>0.3448472720326734</v>
+        <v>0.1980439002030536</v>
       </c>
       <c r="M9">
-        <v>0.3747100147999234</v>
+        <v>0.3222972353530977</v>
       </c>
       <c r="N9">
-        <v>3.966424602519893</v>
+        <v>2.00438683344467</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.539236436787775</v>
+        <v>1.852262240619723</v>
       </c>
       <c r="C10">
-        <v>0.0978309879610606</v>
+        <v>0.2492955272661277</v>
       </c>
       <c r="D10">
-        <v>0.0123321862371597</v>
+        <v>0.008785198600602229</v>
       </c>
       <c r="E10">
-        <v>0.06310849629421522</v>
+        <v>0.02128538285464643</v>
       </c>
       <c r="F10">
-        <v>3.78047682114493</v>
+        <v>2.271667763529109</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.371395330883885</v>
+        <v>1.319462060204529</v>
       </c>
       <c r="J10">
-        <v>0.144072664776548</v>
+        <v>0.05492570220567572</v>
       </c>
       <c r="K10">
-        <v>1.386533597482497</v>
+        <v>1.939062166419518</v>
       </c>
       <c r="L10">
-        <v>0.3479592734738333</v>
+        <v>0.2206234314009805</v>
       </c>
       <c r="M10">
-        <v>0.3848471188867819</v>
+        <v>0.3735442744655515</v>
       </c>
       <c r="N10">
-        <v>3.937952070596324</v>
+        <v>1.941950112732314</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.566906207619013</v>
+        <v>1.979556830665103</v>
       </c>
       <c r="C11">
-        <v>0.1026765632283002</v>
+        <v>0.2686034465332341</v>
       </c>
       <c r="D11">
-        <v>0.01248992391124659</v>
+        <v>0.009430381721095671</v>
       </c>
       <c r="E11">
-        <v>0.06303214242176036</v>
+        <v>0.02147162968888416</v>
       </c>
       <c r="F11">
-        <v>3.786020607849508</v>
+        <v>2.335398381597273</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.371591185374314</v>
+        <v>1.344292317073595</v>
       </c>
       <c r="J11">
-        <v>0.143750011023883</v>
+        <v>0.05436603634335135</v>
       </c>
       <c r="K11">
-        <v>1.417495914043229</v>
+        <v>2.076591360601952</v>
       </c>
       <c r="L11">
-        <v>0.3495102468375251</v>
+        <v>0.2312056185604803</v>
       </c>
       <c r="M11">
-        <v>0.3896381665626407</v>
+        <v>0.3973782600102638</v>
       </c>
       <c r="N11">
-        <v>3.925924507755767</v>
+        <v>1.915954423661105</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.577493034188706</v>
+        <v>2.028166161694855</v>
       </c>
       <c r="C12">
-        <v>0.1045182850903075</v>
+        <v>0.2759850564544593</v>
       </c>
       <c r="D12">
-        <v>0.01255022999209388</v>
+        <v>0.009675666675459382</v>
       </c>
       <c r="E12">
-        <v>0.06300485413342471</v>
+        <v>0.02154441495687198</v>
       </c>
       <c r="F12">
-        <v>3.788324018584603</v>
+        <v>2.360153319195831</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.371783695792701</v>
+        <v>1.354043478595685</v>
       </c>
       <c r="J12">
-        <v>0.143630707940881</v>
+        <v>0.05415842056021525</v>
       </c>
       <c r="K12">
-        <v>1.429322913603613</v>
+        <v>2.129119811512709</v>
       </c>
       <c r="L12">
-        <v>0.350116954193382</v>
+        <v>0.2352617842918221</v>
       </c>
       <c r="M12">
-        <v>0.3914781673295025</v>
+        <v>0.4064873517221912</v>
       </c>
       <c r="N12">
-        <v>3.921502910547275</v>
+        <v>1.906476673644789</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.575208135486548</v>
+        <v>2.017678470651902</v>
       </c>
       <c r="C13">
-        <v>0.1041213337799149</v>
+        <v>0.2743920197052603</v>
       </c>
       <c r="D13">
-        <v>0.01253721661163354</v>
+        <v>0.00962279369310437</v>
       </c>
       <c r="E13">
-        <v>0.06301065899922076</v>
+        <v>0.02152863724282206</v>
       </c>
       <c r="F13">
-        <v>3.787818863707514</v>
+        <v>2.354793411323328</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.371736973379143</v>
+        <v>1.351927447843707</v>
       </c>
       <c r="J13">
-        <v>0.1436562741010636</v>
+        <v>0.05420294138250981</v>
       </c>
       <c r="K13">
-        <v>1.42677121469481</v>
+        <v>2.117786015826425</v>
       </c>
       <c r="L13">
-        <v>0.3499854277551435</v>
+        <v>0.2343859690100061</v>
       </c>
       <c r="M13">
-        <v>0.3910807471823361</v>
+        <v>0.4045216775815987</v>
       </c>
       <c r="N13">
-        <v>3.922449266193539</v>
+        <v>1.908501247264851</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.567775012338871</v>
+        <v>1.98354754744355</v>
       </c>
       <c r="C14">
-        <v>0.1028279460768999</v>
+        <v>0.2692092747225558</v>
       </c>
       <c r="D14">
-        <v>0.01249487387466885</v>
+        <v>0.009450540836795085</v>
       </c>
       <c r="E14">
-        <v>0.06302986487150974</v>
+        <v>0.02147757192350142</v>
       </c>
       <c r="F14">
-        <v>3.786206021541332</v>
+        <v>2.337422225645</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,22 +1006,22 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.371604652082326</v>
+        <v>1.345087407587343</v>
       </c>
       <c r="J14">
-        <v>0.1437401382427126</v>
+        <v>0.05434886880579626</v>
       </c>
       <c r="K14">
-        <v>1.418466880879237</v>
+        <v>2.080903591913341</v>
       </c>
       <c r="L14">
-        <v>0.3495597728626194</v>
+        <v>0.2315383156438742</v>
       </c>
       <c r="M14">
-        <v>0.3897890293091351</v>
+        <v>0.39812594090386</v>
       </c>
       <c r="N14">
-        <v>3.925558075141879</v>
+        <v>1.915167221367568</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.563236177671342</v>
+        <v>1.962695603740883</v>
       </c>
       <c r="C15">
-        <v>0.1020365967794135</v>
+        <v>0.2660441143087837</v>
       </c>
       <c r="D15">
-        <v>0.01246901222572561</v>
+        <v>0.009345163361007991</v>
       </c>
       <c r="E15">
-        <v>0.0630418404401567</v>
+        <v>0.0214465900806724</v>
       </c>
       <c r="F15">
-        <v>3.785244682885221</v>
+        <v>2.326864378952777</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.371539010511825</v>
+        <v>1.340943890137709</v>
       </c>
       <c r="J15">
-        <v>0.1437918820951154</v>
+        <v>0.05443881755116742</v>
       </c>
       <c r="K15">
-        <v>1.413393543551138</v>
+        <v>2.058372156196356</v>
       </c>
       <c r="L15">
-        <v>0.3493015697001596</v>
+        <v>0.2298005491246045</v>
       </c>
       <c r="M15">
-        <v>0.3890011634523987</v>
+        <v>0.3942195359529634</v>
       </c>
       <c r="N15">
-        <v>3.927479628473151</v>
+        <v>1.919298648581687</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.537443411343048</v>
+        <v>1.843997456008992</v>
       </c>
       <c r="C16">
-        <v>0.09751526818618572</v>
+        <v>0.2480429993179882</v>
       </c>
       <c r="D16">
-        <v>0.0123219585895491</v>
+        <v>0.008743158529568973</v>
       </c>
       <c r="E16">
-        <v>0.06311371407303046</v>
+        <v>0.02127352145816186</v>
       </c>
       <c r="F16">
-        <v>3.780143093348471</v>
+        <v>2.267586963044849</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,22 +1100,22 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.371399097304412</v>
+        <v>1.317886622200064</v>
       </c>
       <c r="J16">
-        <v>0.1440941543174361</v>
+        <v>0.05496287876129635</v>
       </c>
       <c r="K16">
-        <v>1.38452445937935</v>
+        <v>1.93013422106705</v>
       </c>
       <c r="L16">
-        <v>0.3478606304908993</v>
+        <v>0.2199384666931792</v>
       </c>
       <c r="M16">
-        <v>0.3845376190677783</v>
+        <v>0.3719978865988196</v>
       </c>
       <c r="N16">
-        <v>3.938756708394195</v>
+        <v>1.943699107201851</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.521814760773111</v>
+        <v>1.771852984878251</v>
       </c>
       <c r="C17">
-        <v>0.09475365245425849</v>
+        <v>0.2371146469155576</v>
       </c>
       <c r="D17">
-        <v>0.01223277906380105</v>
+        <v>0.008375353856049372</v>
       </c>
       <c r="E17">
-        <v>0.06316070969875476</v>
+        <v>0.0211712609521566</v>
       </c>
       <c r="F17">
-        <v>3.777377176514619</v>
+        <v>2.232274233222725</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,22 +1147,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.371524157595402</v>
+        <v>1.304333522998782</v>
       </c>
       <c r="J17">
-        <v>0.1442847260495235</v>
+        <v>0.05529200318227723</v>
       </c>
       <c r="K17">
-        <v>1.366996608479354</v>
+        <v>1.852207260584549</v>
       </c>
       <c r="L17">
-        <v>0.347011266862097</v>
+        <v>0.2139708740472059</v>
       </c>
       <c r="M17">
-        <v>0.3818453182075032</v>
+        <v>0.3585051338685545</v>
       </c>
       <c r="N17">
-        <v>3.945911680021368</v>
+        <v>1.959298258907467</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.512897139010875</v>
+        <v>1.730590439483905</v>
       </c>
       <c r="C18">
-        <v>0.09316966517822323</v>
+        <v>0.2308681978868492</v>
       </c>
       <c r="D18">
-        <v>0.01218186814721633</v>
+        <v>0.008164294063920607</v>
       </c>
       <c r="E18">
-        <v>0.06318880997465204</v>
+        <v>0.02111384944088979</v>
       </c>
       <c r="F18">
-        <v>3.775920034399419</v>
+        <v>2.212334046839473</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.371673623390066</v>
+        <v>1.296747283203672</v>
       </c>
       <c r="J18">
-        <v>0.1443962288574614</v>
+        <v>0.05548409344380545</v>
       </c>
       <c r="K18">
-        <v>1.356982170309095</v>
+        <v>1.807642265864018</v>
       </c>
       <c r="L18">
-        <v>0.346535475365485</v>
+        <v>0.2105674368305799</v>
       </c>
       <c r="M18">
-        <v>0.3803136910709881</v>
+        <v>0.3507929774655523</v>
       </c>
       <c r="N18">
-        <v>3.950114070315564</v>
+        <v>1.968495736973921</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.509890089377052</v>
+        <v>1.71665836450353</v>
       </c>
       <c r="C19">
-        <v>0.09263411213575523</v>
+        <v>0.2287597310965594</v>
       </c>
       <c r="D19">
-        <v>0.01216469662791297</v>
+        <v>0.008092911738895481</v>
       </c>
       <c r="E19">
-        <v>0.06319850820475192</v>
+        <v>0.02109464950280238</v>
       </c>
       <c r="F19">
-        <v>3.77544964740261</v>
+        <v>2.205644863915111</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.371737549639242</v>
+        <v>1.294213867813525</v>
       </c>
       <c r="J19">
-        <v>0.1444343068544161</v>
+        <v>0.05554960891601546</v>
       </c>
       <c r="K19">
-        <v>1.353602989561466</v>
+        <v>1.792595871497383</v>
       </c>
       <c r="L19">
-        <v>0.3463765707806914</v>
+        <v>0.2094199424273313</v>
       </c>
       <c r="M19">
-        <v>0.3797980161985564</v>
+        <v>0.3481898540107267</v>
       </c>
       <c r="N19">
-        <v>3.951551876601471</v>
+        <v>1.97164794979949</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.523471053613235</v>
+        <v>1.779508453107496</v>
       </c>
       <c r="C20">
-        <v>0.09504717324706746</v>
+        <v>0.2382738622270466</v>
       </c>
       <c r="D20">
-        <v>0.01224223283035997</v>
+        <v>0.008414455060172799</v>
       </c>
       <c r="E20">
-        <v>0.0631555962901782</v>
+        <v>0.02118200054950226</v>
       </c>
       <c r="F20">
-        <v>3.777657772966151</v>
+        <v>2.235994611874389</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.371502820914785</v>
+        <v>1.305754444349226</v>
       </c>
       <c r="J20">
-        <v>0.1442642437202544</v>
+        <v>0.05525667854186267</v>
       </c>
       <c r="K20">
-        <v>1.368855533644734</v>
+        <v>1.860475805918924</v>
       </c>
       <c r="L20">
-        <v>0.3471003650358568</v>
+        <v>0.2146031071432049</v>
       </c>
       <c r="M20">
-        <v>0.3821301684794634</v>
+        <v>0.3599363783904437</v>
       </c>
       <c r="N20">
-        <v>3.945141012748081</v>
+        <v>1.9576142492391</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.569955348942699</v>
+        <v>1.993561238773452</v>
       </c>
       <c r="C21">
-        <v>0.1032076602479606</v>
+        <v>0.2707295916041517</v>
       </c>
       <c r="D21">
-        <v>0.01250729545467166</v>
+        <v>0.009501107700153</v>
       </c>
       <c r="E21">
-        <v>0.06302417959642526</v>
+        <v>0.02149250892964805</v>
       </c>
       <c r="F21">
-        <v>3.786674214794971</v>
+        <v>2.342507273941408</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.371640306997321</v>
+        <v>1.347086813825229</v>
       </c>
       <c r="J21">
-        <v>0.1437154272524879</v>
+        <v>0.05430588874520126</v>
       </c>
       <c r="K21">
-        <v>1.42090329235441</v>
+        <v>2.091724226654634</v>
       </c>
       <c r="L21">
-        <v>0.3496842724075435</v>
+        <v>0.2323733770537046</v>
       </c>
       <c r="M21">
-        <v>0.3901677404762012</v>
+        <v>0.4000021797055027</v>
       </c>
       <c r="N21">
-        <v>3.924641333507438</v>
+        <v>1.91319915364484</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.600969999031065</v>
+        <v>2.135845323388367</v>
       </c>
       <c r="C22">
-        <v>0.1085807134527386</v>
+        <v>0.2923549269754915</v>
       </c>
       <c r="D22">
-        <v>0.0126838719714506</v>
+        <v>0.01021705229387493</v>
       </c>
       <c r="E22">
-        <v>0.06294776075778863</v>
+        <v>0.02170865709305314</v>
       </c>
       <c r="F22">
-        <v>3.793756534590628</v>
+        <v>2.415768801321946</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.372419920501258</v>
+        <v>1.376145092587365</v>
       </c>
       <c r="J22">
-        <v>0.1433735201175157</v>
+        <v>0.05370968773954843</v>
       </c>
       <c r="K22">
-        <v>1.455515332997862</v>
+        <v>2.245503900511949</v>
       </c>
       <c r="L22">
-        <v>0.3514859778502313</v>
+        <v>0.2442746698891369</v>
       </c>
       <c r="M22">
-        <v>0.3955707178915162</v>
+        <v>0.42667983792672</v>
       </c>
       <c r="N22">
-        <v>3.912018721001644</v>
+        <v>1.886316831697712</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.584358976894691</v>
+        <v>2.059671139312456</v>
       </c>
       <c r="C23">
-        <v>0.1057093647563363</v>
+        <v>0.2807719478221884</v>
       </c>
       <c r="D23">
-        <v>0.0125893270558386</v>
+        <v>0.009834340469641489</v>
       </c>
       <c r="E23">
-        <v>0.06298768313292857</v>
+        <v>0.0215920501356397</v>
       </c>
       <c r="F23">
-        <v>3.789867789205204</v>
+        <v>2.376316078267905</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,22 +1429,22 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.37194074539822</v>
+        <v>1.360439675634936</v>
       </c>
       <c r="J23">
-        <v>0.1435544703982856</v>
+        <v>0.05402556660758151</v>
       </c>
       <c r="K23">
-        <v>1.436987807138365</v>
+        <v>2.163168298494838</v>
       </c>
       <c r="L23">
-        <v>0.3505140596673044</v>
+        <v>0.2378949269181305</v>
       </c>
       <c r="M23">
-        <v>0.3926733571748926</v>
+        <v>0.4123933449001314</v>
       </c>
       <c r="N23">
-        <v>3.918684721567999</v>
+        <v>1.90046097818761</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.522722033338255</v>
+        <v>1.776046751874816</v>
       </c>
       <c r="C24">
-        <v>0.09491446096875222</v>
+        <v>0.2377496682749864</v>
       </c>
       <c r="D24">
-        <v>0.01223795766197711</v>
+        <v>0.008396776186760491</v>
       </c>
       <c r="E24">
-        <v>0.06315790469205851</v>
+        <v>0.02117714088836298</v>
       </c>
       <c r="F24">
-        <v>3.777530500928677</v>
+        <v>2.234311506205572</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.371512225592213</v>
+        <v>1.305111407318108</v>
       </c>
       <c r="J24">
-        <v>0.1442734977359503</v>
+        <v>0.05527263986944142</v>
       </c>
       <c r="K24">
-        <v>1.368014918697611</v>
+        <v>1.856736864576988</v>
       </c>
       <c r="L24">
-        <v>0.3470600447513306</v>
+        <v>0.2143171894974358</v>
       </c>
       <c r="M24">
-        <v>0.3820013371638069</v>
+        <v>0.3592891732037771</v>
       </c>
       <c r="N24">
-        <v>3.94548915447416</v>
+        <v>1.958374877234817</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.458974061452636</v>
+        <v>1.478870220379946</v>
       </c>
       <c r="C25">
-        <v>0.08343919201762162</v>
+        <v>0.192813233627092</v>
       </c>
       <c r="D25">
-        <v>0.01187362266945158</v>
+        <v>0.006864348383722074</v>
       </c>
       <c r="E25">
-        <v>0.06338244389136793</v>
+        <v>0.02078302653288944</v>
       </c>
       <c r="F25">
-        <v>3.769336608620051</v>
+        <v>2.095144051441466</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,22 +1523,22 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.374014663730335</v>
+        <v>1.253339019658696</v>
       </c>
       <c r="J25">
-        <v>0.1451214210619156</v>
+        <v>0.05672417010475694</v>
       </c>
       <c r="K25">
-        <v>1.29618335090791</v>
+        <v>1.53583442548495</v>
       </c>
       <c r="L25">
-        <v>0.343821669937725</v>
+        <v>0.1899778303054944</v>
       </c>
       <c r="M25">
-        <v>0.3711367947434852</v>
+        <v>0.3038334489720853</v>
       </c>
       <c r="N25">
-        <v>3.977729850541863</v>
+        <v>2.029390211554286</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.266053372567256</v>
+        <v>1.839993123085833</v>
       </c>
       <c r="C2">
-        <v>0.1606810873134634</v>
+        <v>0.571850158576666</v>
       </c>
       <c r="D2">
-        <v>0.005745396096269673</v>
+        <v>0.04333189329192777</v>
       </c>
       <c r="E2">
-        <v>0.02053548684510531</v>
+        <v>0.2973676947751258</v>
       </c>
       <c r="F2">
-        <v>2.003044937880659</v>
+        <v>0.5490349128077909</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.002210757148640052</v>
       </c>
       <c r="I2">
-        <v>1.2211426106186</v>
+        <v>0.005452417008548149</v>
       </c>
       <c r="J2">
-        <v>0.057882805019978</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>1.306071289300235</v>
+        <v>0.2444517741717647</v>
       </c>
       <c r="L2">
-        <v>0.1728521528125171</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2642752963064865</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.088378956465235</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.856717505208259</v>
+      </c>
+      <c r="P2">
+        <v>0.7172043901642198</v>
+      </c>
+      <c r="Q2">
+        <v>1.567306584195819</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.124876761536285</v>
+        <v>1.6033016250488</v>
       </c>
       <c r="C3">
-        <v>0.1393627634178927</v>
+        <v>0.505080178146784</v>
       </c>
       <c r="D3">
-        <v>0.004990333622927778</v>
+        <v>0.0386401266776133</v>
       </c>
       <c r="E3">
-        <v>0.02039288758767732</v>
+        <v>0.2655230108333555</v>
       </c>
       <c r="F3">
-        <v>1.946348379999336</v>
+        <v>0.5010609677427738</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00112574401346377</v>
       </c>
       <c r="I3">
-        <v>1.202626298353692</v>
+        <v>0.003798604058210753</v>
       </c>
       <c r="J3">
-        <v>0.05872338836127167</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>1.15363476105253</v>
+        <v>0.2400613726009624</v>
       </c>
       <c r="L3">
-        <v>0.1616773012772086</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2381284682833176</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.132247747246467</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.746459094657439</v>
+      </c>
+      <c r="P3">
+        <v>0.7304448450525882</v>
+      </c>
+      <c r="Q3">
+        <v>1.452505212175453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.039493058817897</v>
+        <v>1.457336103912553</v>
       </c>
       <c r="C4">
-        <v>0.1264580798046069</v>
+        <v>0.4642902695727855</v>
       </c>
       <c r="D4">
-        <v>0.004527621650666447</v>
+        <v>0.03576252005804292</v>
       </c>
       <c r="E4">
-        <v>0.02031731991102959</v>
+        <v>0.2459462062967717</v>
       </c>
       <c r="F4">
-        <v>1.914132886286367</v>
+        <v>0.4720719287250574</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0006242824250144441</v>
       </c>
       <c r="I4">
-        <v>1.192768980287084</v>
+        <v>0.002937957795461799</v>
       </c>
       <c r="J4">
-        <v>0.05926660770193859</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>1.061417978181538</v>
+        <v>0.2375834634360565</v>
       </c>
       <c r="L4">
-        <v>0.1550092589700824</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2223611158019807</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2.161016221996093</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.67876208280898</v>
+      </c>
+      <c r="P4">
+        <v>0.7391895128915991</v>
+      </c>
+      <c r="Q4">
+        <v>1.383364577385009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.004997198579787</v>
+        <v>1.396699664865707</v>
       </c>
       <c r="C5">
-        <v>0.1212401925033362</v>
+        <v>0.4483486577766769</v>
       </c>
       <c r="D5">
-        <v>0.004339199593660581</v>
+        <v>0.03463287477289612</v>
       </c>
       <c r="E5">
-        <v>0.02028948376631146</v>
+        <v>0.237950654979187</v>
       </c>
       <c r="F5">
-        <v>1.901626700153315</v>
+        <v>0.4599132232956151</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0004583151689276921</v>
       </c>
       <c r="I5">
-        <v>1.189115933895636</v>
+        <v>0.002678846074350982</v>
       </c>
       <c r="J5">
-        <v>0.05949475698354867</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>1.024153676163905</v>
+        <v>0.2363034451435162</v>
       </c>
       <c r="L5">
-        <v>0.1523379484664957</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2160025283144833</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2.173188355547161</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.6511559383948153</v>
+      </c>
+      <c r="P5">
+        <v>0.7431347677545475</v>
+      </c>
+      <c r="Q5">
+        <v>1.353972911996067</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9992864399128507</v>
+        <v>1.38540919894254</v>
       </c>
       <c r="C6">
-        <v>0.1203760778204241</v>
+        <v>0.4464834508142133</v>
       </c>
       <c r="D6">
-        <v>0.004307918118811926</v>
+        <v>0.03449747845056095</v>
       </c>
       <c r="E6">
-        <v>0.02028503870222043</v>
+        <v>0.2366119631098158</v>
       </c>
       <c r="F6">
-        <v>1.899586746557389</v>
+        <v>0.4573455927002357</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0004325106887554941</v>
       </c>
       <c r="I6">
-        <v>1.188530869500887</v>
+        <v>0.002713033906933227</v>
       </c>
       <c r="J6">
-        <v>0.05953304980950325</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>1.017984075155994</v>
+        <v>0.2357005658767584</v>
       </c>
       <c r="L6">
-        <v>0.151897081377335</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.214950568448927</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2.175236291606495</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.6465551370210108</v>
+      </c>
+      <c r="P6">
+        <v>0.7440843672189672</v>
+      </c>
+      <c r="Q6">
+        <v>1.347240033518887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.039026662018216</v>
+        <v>1.453197268575565</v>
       </c>
       <c r="C7">
-        <v>0.126387551202626</v>
+        <v>0.4662092853216109</v>
       </c>
       <c r="D7">
-        <v>0.004525080080904686</v>
+        <v>0.03589019870094035</v>
       </c>
       <c r="E7">
-        <v>0.02031693259636036</v>
+        <v>0.2458104107910444</v>
       </c>
       <c r="F7">
-        <v>1.913961745105695</v>
+        <v>0.4703896121471232</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0006201794602949118</v>
       </c>
       <c r="I7">
-        <v>1.19271826142014</v>
+        <v>0.003124646048009438</v>
       </c>
       <c r="J7">
-        <v>0.05926965717799515</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>1.060914185355557</v>
+        <v>0.2364911319630423</v>
       </c>
       <c r="L7">
-        <v>0.1549730499980768</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2222750983664135</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2.161178578170144</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.6783447842072974</v>
+      </c>
+      <c r="P7">
+        <v>0.7400352623772051</v>
+      </c>
+      <c r="Q7">
+        <v>1.377851731494786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.217088565120264</v>
+        <v>1.754067025148288</v>
       </c>
       <c r="C8">
-        <v>0.1532886715149289</v>
+        <v>0.5516324098718144</v>
       </c>
       <c r="D8">
-        <v>0.005484806325014802</v>
+        <v>0.04190461444142812</v>
       </c>
       <c r="E8">
-        <v>0.02048379494671693</v>
+        <v>0.2863550196225049</v>
       </c>
       <c r="F8">
-        <v>1.982937813830134</v>
+        <v>0.5303741720774511</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001797223519871105</v>
       </c>
       <c r="I8">
-        <v>1.214434317955522</v>
+        <v>0.005073406882412534</v>
       </c>
       <c r="J8">
-        <v>0.05816699480789111</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>1.253204752123708</v>
+        <v>0.2414696146204065</v>
       </c>
       <c r="L8">
-        <v>0.1689572828940058</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2551969582480176</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>2.103116964552299</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.8186341018160306</v>
+      </c>
+      <c r="P8">
+        <v>0.7227486081488408</v>
+      </c>
+      <c r="Q8">
+        <v>1.52063821025655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.5779465408975</v>
+        <v>2.345298008790508</v>
       </c>
       <c r="C9">
-        <v>0.2077824025311656</v>
+        <v>0.7172702028473168</v>
       </c>
       <c r="D9">
-        <v>0.007378712062521942</v>
+        <v>0.05348057033334896</v>
       </c>
       <c r="E9">
-        <v>0.02090895370733215</v>
+        <v>0.3658767872332476</v>
       </c>
       <c r="F9">
-        <v>2.14030620512753</v>
+        <v>0.6548843216472449</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.00554051406490419</v>
       </c>
       <c r="I9">
-        <v>1.269803104642619</v>
+        <v>0.009970135547283654</v>
       </c>
       <c r="J9">
-        <v>0.05622115765413405</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>1.642807190926334</v>
+        <v>0.2550254356196575</v>
       </c>
       <c r="L9">
-        <v>0.1980439002030536</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3222972353530977</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>2.00438683344467</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.09415308475085</v>
+      </c>
+      <c r="P9">
+        <v>0.6924298074085371</v>
+      </c>
+      <c r="Q9">
+        <v>1.821760593515052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.852262240619723</v>
+        <v>2.776123414260553</v>
       </c>
       <c r="C10">
-        <v>0.2492955272661277</v>
+        <v>0.8398227653025288</v>
       </c>
       <c r="D10">
-        <v>0.008785198600602229</v>
+        <v>0.06289705049167793</v>
       </c>
       <c r="E10">
-        <v>0.02128538285464643</v>
+        <v>0.3969656924244305</v>
       </c>
       <c r="F10">
-        <v>2.271667763529109</v>
+        <v>0.7409127419907691</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.009141211103739</v>
       </c>
       <c r="I10">
-        <v>1.319462060204529</v>
+        <v>0.01458548691893746</v>
       </c>
       <c r="J10">
-        <v>0.05492570220567572</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>1.939062166419518</v>
+        <v>0.2621934594714155</v>
       </c>
       <c r="L10">
-        <v>0.2206234314009805</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3735442744655515</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.941950112732314</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.258681142926989</v>
+      </c>
+      <c r="P10">
+        <v>0.6793206029389012</v>
+      </c>
+      <c r="Q10">
+        <v>2.023232873050091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.979556830665103</v>
+        <v>2.97213658162525</v>
       </c>
       <c r="C11">
-        <v>0.2686034465332341</v>
+        <v>0.8825772757273569</v>
       </c>
       <c r="D11">
-        <v>0.009430381721095671</v>
+        <v>0.074731185161653</v>
       </c>
       <c r="E11">
-        <v>0.02147162968888416</v>
+        <v>0.215956454367614</v>
       </c>
       <c r="F11">
-        <v>2.335398381597273</v>
+        <v>0.7105019925977558</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.026616542334434</v>
       </c>
       <c r="I11">
-        <v>1.344292317073595</v>
+        <v>0.01648849657517815</v>
       </c>
       <c r="J11">
-        <v>0.05436603634335135</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>2.076591360601952</v>
+        <v>0.2337227558064008</v>
       </c>
       <c r="L11">
-        <v>0.2312056185604803</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3973782600102638</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.915954423661105</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.017258559936714</v>
+      </c>
+      <c r="P11">
+        <v>0.7282293922358178</v>
+      </c>
+      <c r="Q11">
+        <v>1.883853612921115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.028166161694855</v>
+        <v>3.052788178791047</v>
       </c>
       <c r="C12">
-        <v>0.2759850564544593</v>
+        <v>0.8891108855873995</v>
       </c>
       <c r="D12">
-        <v>0.009675666675459382</v>
+        <v>0.08303745286563924</v>
       </c>
       <c r="E12">
-        <v>0.02154441495687198</v>
+        <v>0.1157593288909204</v>
       </c>
       <c r="F12">
-        <v>2.360153319195831</v>
+        <v>0.6692038605395538</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06424343802018484</v>
       </c>
       <c r="I12">
-        <v>1.354043478595685</v>
+        <v>0.01680711882138031</v>
       </c>
       <c r="J12">
-        <v>0.05415842056021525</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>2.129119811512709</v>
+        <v>0.2107659679156164</v>
       </c>
       <c r="L12">
-        <v>0.2352617842918221</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4064873517221912</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.906476673644789</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.8032544892081077</v>
+      </c>
+      <c r="P12">
+        <v>0.7785852768107588</v>
+      </c>
+      <c r="Q12">
+        <v>1.734393759182723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.017678470651902</v>
+        <v>3.043308619508196</v>
       </c>
       <c r="C13">
-        <v>0.2743920197052603</v>
+        <v>0.8714941248103116</v>
       </c>
       <c r="D13">
-        <v>0.00962279369310437</v>
+        <v>0.08924025714600958</v>
       </c>
       <c r="E13">
-        <v>0.02152863724282206</v>
+        <v>0.0709967737856354</v>
       </c>
       <c r="F13">
-        <v>2.354793411323328</v>
+        <v>0.6146937155174825</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1188670726639032</v>
       </c>
       <c r="I13">
-        <v>1.351927447843707</v>
+        <v>0.01617292448329621</v>
       </c>
       <c r="J13">
-        <v>0.05420294138250981</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>2.117786015826425</v>
+        <v>0.1889631750126313</v>
       </c>
       <c r="L13">
-        <v>0.2343859690100061</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4045216775815987</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.908501247264851</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5991349652672042</v>
+      </c>
+      <c r="P13">
+        <v>0.8329682490637538</v>
+      </c>
+      <c r="Q13">
+        <v>1.560417102573723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.98354754744355</v>
+        <v>2.994804277544972</v>
       </c>
       <c r="C14">
-        <v>0.2692092747225558</v>
+        <v>0.8490000868991388</v>
       </c>
       <c r="D14">
-        <v>0.009450540836795085</v>
+        <v>0.09269639615466474</v>
       </c>
       <c r="E14">
-        <v>0.02147757192350142</v>
+        <v>0.07222935586831092</v>
       </c>
       <c r="F14">
-        <v>2.337422225645</v>
+        <v>0.5705444121489336</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1674412565554206</v>
       </c>
       <c r="I14">
-        <v>1.345087407587343</v>
+        <v>0.01538736683694442</v>
       </c>
       <c r="J14">
-        <v>0.05434886880579626</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>2.080903591913341</v>
+        <v>0.1742087901476062</v>
       </c>
       <c r="L14">
-        <v>0.2315383156438742</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.39812594090386</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.915167221367568</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.4652770869795404</v>
+      </c>
+      <c r="P14">
+        <v>0.8736316449431314</v>
+      </c>
+      <c r="Q14">
+        <v>1.427726884257851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.962695603740883</v>
+        <v>2.962224972930869</v>
       </c>
       <c r="C15">
-        <v>0.2660441143087837</v>
+        <v>0.8392926961730325</v>
       </c>
       <c r="D15">
-        <v>0.009345163361007991</v>
+        <v>0.09307900966495453</v>
       </c>
       <c r="E15">
-        <v>0.0214465900806724</v>
+        <v>0.07659893430361819</v>
       </c>
       <c r="F15">
-        <v>2.326864378952777</v>
+        <v>0.5565038864589127</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1796686916001846</v>
       </c>
       <c r="I15">
-        <v>1.340943890137709</v>
+        <v>0.01508272455139803</v>
       </c>
       <c r="J15">
-        <v>0.05443881755116742</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>2.058372156196356</v>
+        <v>0.17045338902658</v>
       </c>
       <c r="L15">
-        <v>0.2298005491246045</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3942195359529634</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.919298648581687</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4319755815168946</v>
+      </c>
+      <c r="P15">
+        <v>0.8838267137004721</v>
+      </c>
+      <c r="Q15">
+        <v>1.388390275765431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.843997456008992</v>
+        <v>2.776089869798739</v>
       </c>
       <c r="C16">
-        <v>0.2480429993179882</v>
+        <v>0.7916204198039338</v>
       </c>
       <c r="D16">
-        <v>0.008743158529568973</v>
+        <v>0.08760591868728795</v>
       </c>
       <c r="E16">
-        <v>0.02127352145816186</v>
+        <v>0.07371440371588456</v>
       </c>
       <c r="F16">
-        <v>2.267586963044849</v>
+        <v>0.5301584968887596</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1657457228751298</v>
       </c>
       <c r="I16">
-        <v>1.317886622200064</v>
+        <v>0.01325629074525381</v>
       </c>
       <c r="J16">
-        <v>0.05496287876129635</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>1.93013422106705</v>
+        <v>0.1711940922372293</v>
       </c>
       <c r="L16">
-        <v>0.2199384666931792</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3719978865988196</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.943699107201851</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4094781094336213</v>
+      </c>
+      <c r="P16">
+        <v>0.8750902041600455</v>
+      </c>
+      <c r="Q16">
+        <v>1.335838310917524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.771852984878251</v>
+        <v>2.659258652574806</v>
       </c>
       <c r="C17">
-        <v>0.2371146469155576</v>
+        <v>0.7671432186475897</v>
       </c>
       <c r="D17">
-        <v>0.008375353856049372</v>
+        <v>0.08158521130816609</v>
       </c>
       <c r="E17">
-        <v>0.0211712609521566</v>
+        <v>0.06551814468570205</v>
       </c>
       <c r="F17">
-        <v>2.232274233222725</v>
+        <v>0.5333093078159123</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1274406904125556</v>
       </c>
       <c r="I17">
-        <v>1.304333522998782</v>
+        <v>0.0123122220264742</v>
       </c>
       <c r="J17">
-        <v>0.05529200318227723</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>1.852207260584549</v>
+        <v>0.1794996807355922</v>
       </c>
       <c r="L17">
-        <v>0.2139708740472059</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3585051338685545</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.959298258907467</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4599732551421027</v>
+      </c>
+      <c r="P17">
+        <v>0.8469957931797865</v>
+      </c>
+      <c r="Q17">
+        <v>1.365445176785101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.730590439483905</v>
+        <v>2.591728191710672</v>
       </c>
       <c r="C18">
-        <v>0.2308681978868492</v>
+        <v>0.7578795948739412</v>
       </c>
       <c r="D18">
-        <v>0.008164294063920607</v>
+        <v>0.07446764040854958</v>
       </c>
       <c r="E18">
-        <v>0.02111384944088979</v>
+        <v>0.08011661584126806</v>
       </c>
       <c r="F18">
-        <v>2.212334046839473</v>
+        <v>0.5635283061276937</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07477008541563634</v>
       </c>
       <c r="I18">
-        <v>1.296747283203672</v>
+        <v>0.0117615558806996</v>
       </c>
       <c r="J18">
-        <v>0.05548409344380545</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>1.807642265864018</v>
+        <v>0.1964652234902395</v>
       </c>
       <c r="L18">
-        <v>0.2105674368305799</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3507929774655523</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.968495736973921</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5917005725701685</v>
+      </c>
+      <c r="P18">
+        <v>0.8010884022017848</v>
+      </c>
+      <c r="Q18">
+        <v>1.474565126329225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.71665836450353</v>
+        <v>2.562304978908742</v>
       </c>
       <c r="C19">
-        <v>0.2287597310965594</v>
+        <v>0.7657889886545206</v>
       </c>
       <c r="D19">
-        <v>0.008092911738895481</v>
+        <v>0.06761113560509813</v>
       </c>
       <c r="E19">
-        <v>0.02109464950280238</v>
+        <v>0.1544683249348431</v>
       </c>
       <c r="F19">
-        <v>2.205644863915111</v>
+        <v>0.6115514792002088</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03053234679835271</v>
       </c>
       <c r="I19">
-        <v>1.294213867813525</v>
+        <v>0.01204731338924336</v>
       </c>
       <c r="J19">
-        <v>0.05554960891601546</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>1.792595871497383</v>
+        <v>0.2184880088401506</v>
       </c>
       <c r="L19">
-        <v>0.2094199424273313</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3481898540107267</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.97164794979949</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.7994329425153737</v>
+      </c>
+      <c r="P19">
+        <v>0.7515942459832772</v>
+      </c>
+      <c r="Q19">
+        <v>1.63552737050594</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.779508453107496</v>
+        <v>2.652474657836933</v>
       </c>
       <c r="C20">
-        <v>0.2382738622270466</v>
+        <v>0.8143141766786357</v>
       </c>
       <c r="D20">
-        <v>0.008414455060172799</v>
+        <v>0.06091708664703077</v>
       </c>
       <c r="E20">
-        <v>0.02118200054950226</v>
+        <v>0.3875314689819191</v>
       </c>
       <c r="F20">
-        <v>2.235994611874389</v>
+        <v>0.7129880016534287</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.008077721840655805</v>
       </c>
       <c r="I20">
-        <v>1.305754444349226</v>
+        <v>0.0139056288809849</v>
       </c>
       <c r="J20">
-        <v>0.05525667854186267</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>1.860475805918924</v>
+        <v>0.2567505077603087</v>
       </c>
       <c r="L20">
-        <v>0.2146031071432049</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3599363783904437</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.9576142492391</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.213709196166207</v>
+      </c>
+      <c r="P20">
+        <v>0.6856733367044967</v>
+      </c>
+      <c r="Q20">
+        <v>1.952556113278575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.993561238773452</v>
+        <v>2.98357853000897</v>
       </c>
       <c r="C21">
-        <v>0.2707295916041517</v>
+        <v>0.9106327244670638</v>
       </c>
       <c r="D21">
-        <v>0.009501107700153</v>
+        <v>0.06684716406800817</v>
       </c>
       <c r="E21">
-        <v>0.02149250892964805</v>
+        <v>0.4541415032445286</v>
       </c>
       <c r="F21">
-        <v>2.342507273941408</v>
+        <v>0.7933821722239571</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01154320694397679</v>
       </c>
       <c r="I21">
-        <v>1.347086813825229</v>
+        <v>0.0178283612725405</v>
       </c>
       <c r="J21">
-        <v>0.05430588874520126</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>2.091724226654634</v>
+        <v>0.2690349126620148</v>
       </c>
       <c r="L21">
-        <v>0.2323733770537046</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4000021797055027</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.91319915364484</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.399865104650516</v>
+      </c>
+      <c r="P21">
+        <v>0.6681245361853243</v>
+      </c>
+      <c r="Q21">
+        <v>2.154622330116979</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.135845323388367</v>
+        <v>3.204477309875358</v>
       </c>
       <c r="C22">
-        <v>0.2923549269754915</v>
+        <v>0.970198253641513</v>
       </c>
       <c r="D22">
-        <v>0.01021705229387493</v>
+        <v>0.07094786928729491</v>
       </c>
       <c r="E22">
-        <v>0.02170865709305314</v>
+        <v>0.4837857255729006</v>
       </c>
       <c r="F22">
-        <v>2.415768801321946</v>
+        <v>0.8447200149882548</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01395525993564095</v>
       </c>
       <c r="I22">
-        <v>1.376145092587365</v>
+        <v>0.02034840226586709</v>
       </c>
       <c r="J22">
-        <v>0.05370968773954843</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>2.245503900511949</v>
+        <v>0.2769302136071339</v>
       </c>
       <c r="L22">
-        <v>0.2442746698891369</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.42667983792672</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.886316831697712</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.502290756625555</v>
+      </c>
+      <c r="P22">
+        <v>0.6588059933447283</v>
+      </c>
+      <c r="Q22">
+        <v>2.282293986406017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.059671139312456</v>
+        <v>3.090678121321048</v>
       </c>
       <c r="C23">
-        <v>0.2807719478221884</v>
+        <v>0.9357420556942202</v>
       </c>
       <c r="D23">
-        <v>0.009834340469641489</v>
+        <v>0.06858126237558793</v>
       </c>
       <c r="E23">
-        <v>0.0215920501356397</v>
+        <v>0.4679809544731555</v>
       </c>
       <c r="F23">
-        <v>2.376316078267905</v>
+        <v>0.8190566111490938</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01265119198385134</v>
       </c>
       <c r="I23">
-        <v>1.360439675634936</v>
+        <v>0.01874603567984234</v>
       </c>
       <c r="J23">
-        <v>0.05402556660758151</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>2.163168298494838</v>
+        <v>0.2739425465486818</v>
       </c>
       <c r="L23">
-        <v>0.2378949269181305</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4123933449001314</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.90046097818761</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.447659173030601</v>
+      </c>
+      <c r="P23">
+        <v>0.6625681168451649</v>
+      </c>
+      <c r="Q23">
+        <v>2.220019262487938</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.776046751874816</v>
+        <v>2.652763290602365</v>
       </c>
       <c r="C24">
-        <v>0.2377496682749864</v>
+        <v>0.8102854054323814</v>
       </c>
       <c r="D24">
-        <v>0.008396776186760491</v>
+        <v>0.05992525985966068</v>
       </c>
       <c r="E24">
-        <v>0.02117714088836298</v>
+        <v>0.4083141586574968</v>
       </c>
       <c r="F24">
-        <v>2.234311506205572</v>
+        <v>0.7206774885815861</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.008202866460976621</v>
       </c>
       <c r="I24">
-        <v>1.305111407318108</v>
+        <v>0.0135244605577336</v>
       </c>
       <c r="J24">
-        <v>0.05527263986944142</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>1.856736864576988</v>
+        <v>0.2613273289762184</v>
       </c>
       <c r="L24">
-        <v>0.2143171894974358</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3592891732037771</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.958374877234817</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.241221542545702</v>
+      </c>
+      <c r="P24">
+        <v>0.6800873020148543</v>
+      </c>
+      <c r="Q24">
+        <v>1.979359655799442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.478870220379946</v>
+        <v>2.179680444084511</v>
       </c>
       <c r="C25">
-        <v>0.192813233627092</v>
+        <v>0.676145609560308</v>
       </c>
       <c r="D25">
-        <v>0.006864348383722074</v>
+        <v>0.05060756734562943</v>
       </c>
       <c r="E25">
-        <v>0.02078302653288944</v>
+        <v>0.3442979418902894</v>
       </c>
       <c r="F25">
-        <v>2.095144051441466</v>
+        <v>0.6179246884126002</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.004349739957488885</v>
       </c>
       <c r="I25">
-        <v>1.253339019658696</v>
+        <v>0.00881057603270996</v>
       </c>
       <c r="J25">
-        <v>0.05672417010475694</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>1.53583442548495</v>
+        <v>0.2492020602426948</v>
       </c>
       <c r="L25">
-        <v>0.1899778303054944</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3038334489720853</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>2.029390211554286</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.019446326539736</v>
+      </c>
+      <c r="P25">
+        <v>0.7016732259946465</v>
+      </c>
+      <c r="Q25">
+        <v>1.729540210239207</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.839993123085833</v>
+        <v>1.779581172441851</v>
       </c>
       <c r="C2">
-        <v>0.571850158576666</v>
+        <v>0.6110091807259153</v>
       </c>
       <c r="D2">
-        <v>0.04333189329192777</v>
+        <v>0.04593068485192475</v>
       </c>
       <c r="E2">
-        <v>0.2973676947751258</v>
+        <v>0.2979221553520119</v>
       </c>
       <c r="F2">
-        <v>0.5490349128077909</v>
+        <v>0.5189891240508118</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.002210757148640052</v>
+        <v>0.002234847407323715</v>
       </c>
       <c r="I2">
-        <v>0.005452417008548149</v>
+        <v>0.005687966162391866</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.2444517741717647</v>
+        <v>0.2218861585202347</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1382173956418775</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04551474658558874</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.856717505208259</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7172043901642198</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.567306584195819</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.8562520427282649</v>
+      </c>
+      <c r="R2">
+        <v>0.729798363548916</v>
+      </c>
+      <c r="S2">
+        <v>1.464966985737135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.6033016250488</v>
+        <v>1.556845899828147</v>
       </c>
       <c r="C3">
-        <v>0.505080178146784</v>
+        <v>0.534573477680965</v>
       </c>
       <c r="D3">
-        <v>0.0386401266776133</v>
+        <v>0.04057711203014236</v>
       </c>
       <c r="E3">
-        <v>0.2655230108333555</v>
+        <v>0.2664738785290339</v>
       </c>
       <c r="F3">
-        <v>0.5010609677427738</v>
+        <v>0.4761989782143417</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.00112574401346377</v>
+        <v>0.00116854856426829</v>
       </c>
       <c r="I3">
-        <v>0.003798604058210753</v>
+        <v>0.004155211403016335</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.2400613726009624</v>
+        <v>0.2203217378646904</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1423919069368331</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.04107558400091627</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.746459094657439</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7304448450525882</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.452505212175453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.7462710456689479</v>
+      </c>
+      <c r="R3">
+        <v>0.7372588572137388</v>
+      </c>
+      <c r="S3">
+        <v>1.366951359422075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.457336103912553</v>
+        <v>1.419196884430278</v>
       </c>
       <c r="C4">
-        <v>0.4642902695727855</v>
+        <v>0.4880096788828325</v>
       </c>
       <c r="D4">
-        <v>0.03576252005804292</v>
+        <v>0.03730411540507816</v>
       </c>
       <c r="E4">
-        <v>0.2459462062967717</v>
+        <v>0.2471373601391775</v>
       </c>
       <c r="F4">
-        <v>0.4720719287250574</v>
+        <v>0.4502701232733628</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0006242824250144441</v>
+        <v>0.000668450487898653</v>
       </c>
       <c r="I4">
-        <v>0.002937957795461799</v>
+        <v>0.003344633524111185</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.2375834634360565</v>
+        <v>0.2194995442928196</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1450258636334958</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03889031253031128</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.67876208280898</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7391895128915991</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.383364577385009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6787239090609773</v>
+      </c>
+      <c r="R4">
+        <v>0.7425360431038328</v>
+      </c>
+      <c r="S4">
+        <v>1.307716885980625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.396699664865707</v>
+        <v>1.361907311564295</v>
       </c>
       <c r="C5">
-        <v>0.4483486577766769</v>
+        <v>0.4697761939771681</v>
       </c>
       <c r="D5">
-        <v>0.03463287477289612</v>
+        <v>0.03601750110792779</v>
       </c>
       <c r="E5">
-        <v>0.237950654979187</v>
+        <v>0.2392393548278022</v>
       </c>
       <c r="F5">
-        <v>0.4599132232956151</v>
+        <v>0.4393415262074072</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0004583151689276921</v>
+        <v>0.0005006551441790741</v>
       </c>
       <c r="I5">
-        <v>0.002678846074350982</v>
+        <v>0.003112625724515539</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.2363034451435162</v>
+        <v>0.2188965246066026</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1459619448271816</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03806020514175934</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6511559383948153</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7431347677545475</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.353972911996067</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.6511744320443995</v>
+      </c>
+      <c r="R5">
+        <v>0.7451181571039527</v>
+      </c>
+      <c r="S5">
+        <v>1.282317434310528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.38540919894254</v>
+        <v>1.351192494787142</v>
       </c>
       <c r="C6">
-        <v>0.4464834508142133</v>
+        <v>0.4675590882344807</v>
       </c>
       <c r="D6">
-        <v>0.03449747845056095</v>
+        <v>0.03585797651550138</v>
       </c>
       <c r="E6">
-        <v>0.2366119631098158</v>
+        <v>0.23791706087367</v>
       </c>
       <c r="F6">
-        <v>0.4573455927002357</v>
+        <v>0.4369921577147693</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0004325106887554941</v>
+        <v>0.0004743960323532193</v>
       </c>
       <c r="I6">
-        <v>0.002713033906933227</v>
+        <v>0.00316761027278023</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.2357005658767584</v>
+        <v>0.2184315739981422</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1459298538703138</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.03783961976236405</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6465551370210108</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7440843672189672</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.347240033518887</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.6465829557576157</v>
+      </c>
+      <c r="R6">
+        <v>0.7458787340634458</v>
+      </c>
+      <c r="S6">
+        <v>1.276306471695762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.453197268575565</v>
+        <v>1.415170786420134</v>
       </c>
       <c r="C7">
-        <v>0.4662092853216109</v>
+        <v>0.4899734116009427</v>
       </c>
       <c r="D7">
-        <v>0.03589019870094035</v>
+        <v>0.03743478028044223</v>
       </c>
       <c r="E7">
-        <v>0.2458104107910444</v>
+        <v>0.2470035765248468</v>
       </c>
       <c r="F7">
-        <v>0.4703896121471232</v>
+        <v>0.4486496290228104</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0006201794602949118</v>
+        <v>0.0006643167457183186</v>
       </c>
       <c r="I7">
-        <v>0.003124646048009438</v>
+        <v>0.003574708694851658</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.2364911319630423</v>
+        <v>0.218492889374577</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1445391078088676</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.0386172133710172</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6783447842072974</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7400352623772051</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.377851731494786</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.6783078983785558</v>
+      </c>
+      <c r="R7">
+        <v>0.7434670733194864</v>
+      </c>
+      <c r="S7">
+        <v>1.30244375572309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.754067025148288</v>
+        <v>1.698623133011552</v>
       </c>
       <c r="C8">
-        <v>0.5516324098718144</v>
+        <v>0.5875412478028181</v>
       </c>
       <c r="D8">
-        <v>0.04190461444142812</v>
+        <v>0.04428077763221694</v>
       </c>
       <c r="E8">
-        <v>0.2863550196225049</v>
+        <v>0.2870482025819356</v>
       </c>
       <c r="F8">
-        <v>0.5303741720774511</v>
+        <v>0.5022101155317813</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.001797223519871105</v>
+        <v>0.00183004693218547</v>
       </c>
       <c r="I8">
-        <v>0.005073406882412534</v>
+        <v>0.005410415965648951</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.2414696146204065</v>
+        <v>0.2200114263998287</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1390470048614709</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.04347169979240384</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8186341018160306</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7227486081488408</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.52063821025655</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.8182697425897985</v>
+      </c>
+      <c r="R8">
+        <v>0.7334912956609045</v>
+      </c>
+      <c r="S8">
+        <v>1.42445240374974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.345298008790508</v>
+        <v>2.253442658572453</v>
       </c>
       <c r="C9">
-        <v>0.7172702028473168</v>
+        <v>0.7781459009607659</v>
       </c>
       <c r="D9">
-        <v>0.05348057033334896</v>
+        <v>0.05756541037232665</v>
       </c>
       <c r="E9">
-        <v>0.3658767872332476</v>
+        <v>0.3655520926128588</v>
       </c>
       <c r="F9">
-        <v>0.6548843216472449</v>
+        <v>0.6130004835492713</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.00554051406490419</v>
+        <v>0.005462375229903782</v>
       </c>
       <c r="I9">
-        <v>0.009970135547283654</v>
+        <v>0.009799831181083185</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.2550254356196575</v>
+        <v>0.2259605130975082</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.129628492708477</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.05791341537041461</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.09415308475085</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6924298074085371</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.821760593515052</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.092954747796149</v>
+      </c>
+      <c r="R9">
+        <v>0.7179292973403264</v>
+      </c>
+      <c r="S9">
+        <v>1.681094466263801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.776123414260553</v>
+        <v>2.657240125340252</v>
       </c>
       <c r="C10">
-        <v>0.8398227653025288</v>
+        <v>0.9190876732718607</v>
       </c>
       <c r="D10">
-        <v>0.06289705049167793</v>
+        <v>0.06829033037143262</v>
       </c>
       <c r="E10">
-        <v>0.3969656924244305</v>
+        <v>0.3958699928385698</v>
       </c>
       <c r="F10">
-        <v>0.7409127419907691</v>
+        <v>0.6890654737716488</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.009141211103739</v>
+        <v>0.008922809159558565</v>
       </c>
       <c r="I10">
-        <v>0.01458548691893746</v>
+        <v>0.01391502277885692</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.2621934594714155</v>
+        <v>0.2278384198951677</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1218721450008147</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.06989224744393141</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.258681142926989</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6793206029389012</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.023232873050091</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.256773644304516</v>
+      </c>
+      <c r="R10">
+        <v>0.716584039550078</v>
+      </c>
+      <c r="S10">
+        <v>1.850631365580512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.97213658162525</v>
+        <v>2.850726678669218</v>
       </c>
       <c r="C11">
-        <v>0.8825772757273569</v>
+        <v>0.9629090629615575</v>
       </c>
       <c r="D11">
-        <v>0.074731185161653</v>
+        <v>0.08064640144214508</v>
       </c>
       <c r="E11">
-        <v>0.215956454367614</v>
+        <v>0.2146268928483934</v>
       </c>
       <c r="F11">
-        <v>0.7105019925977558</v>
+        <v>0.6608998223245095</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.026616542334434</v>
+        <v>0.02638341352417584</v>
       </c>
       <c r="I11">
-        <v>0.01648849657517815</v>
+        <v>0.015738804719021</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.2337227558064008</v>
+        <v>0.2029155434034458</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1096457433739211</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.06483021919645182</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.017258559936714</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7282293922358178</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.883853612921115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.015535441599823</v>
+      </c>
+      <c r="R11">
+        <v>0.7747079436444011</v>
+      </c>
+      <c r="S11">
+        <v>1.721589713508052</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.052788178791047</v>
+        <v>2.935183320999215</v>
       </c>
       <c r="C12">
-        <v>0.8891108855873995</v>
+        <v>0.9661104589683589</v>
       </c>
       <c r="D12">
-        <v>0.08303745286563924</v>
+        <v>0.08905592195360157</v>
       </c>
       <c r="E12">
-        <v>0.1157593288909204</v>
+        <v>0.1143787657038118</v>
       </c>
       <c r="F12">
-        <v>0.6692038605395538</v>
+        <v>0.6234780224615406</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06424343802018484</v>
+        <v>0.06402351548056373</v>
       </c>
       <c r="I12">
-        <v>0.01680711882138031</v>
+        <v>0.01601972004171426</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.2107659679156164</v>
+        <v>0.1837684853718962</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1020112192580864</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.05858751052731392</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8032544892081077</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.7785852768107588</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.734393759182723</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.8018244157625105</v>
+      </c>
+      <c r="R12">
+        <v>0.8294035906635031</v>
+      </c>
+      <c r="S12">
+        <v>1.586919288893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.043308619508196</v>
+        <v>2.934815053573857</v>
       </c>
       <c r="C13">
-        <v>0.8714941248103116</v>
+        <v>0.9417782684037093</v>
       </c>
       <c r="D13">
-        <v>0.08924025714600958</v>
+        <v>0.09504387457042895</v>
       </c>
       <c r="E13">
-        <v>0.0709967737856354</v>
+        <v>0.06968844272323338</v>
       </c>
       <c r="F13">
-        <v>0.6146937155174825</v>
+        <v>0.5743687962755217</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1188670726639032</v>
+        <v>0.1186797619724018</v>
       </c>
       <c r="I13">
-        <v>0.01617292448329621</v>
+        <v>0.01545977415651478</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.1889631750126313</v>
+        <v>0.1662958645821355</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0964622163336859</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.05065657214165142</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5991349652672042</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8329682490637538</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.560417102573723</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5980540555448925</v>
+      </c>
+      <c r="R13">
+        <v>0.8846592241019806</v>
+      </c>
+      <c r="S13">
+        <v>1.432165666536605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.994804277544972</v>
+        <v>2.895081974862933</v>
       </c>
       <c r="C14">
-        <v>0.8490000868991388</v>
+        <v>0.9131329139330262</v>
       </c>
       <c r="D14">
-        <v>0.09269639615466474</v>
+        <v>0.09819859491784655</v>
       </c>
       <c r="E14">
-        <v>0.07222935586831092</v>
+        <v>0.07102048058869137</v>
       </c>
       <c r="F14">
-        <v>0.5705444121489336</v>
+        <v>0.5346226539961663</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1674412565554206</v>
+        <v>0.1672824658999161</v>
       </c>
       <c r="I14">
-        <v>0.01538736683694442</v>
+        <v>0.01478793150168212</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.1742087901476062</v>
+        <v>0.1547468272996717</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.0933399761954572</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.04447577090789068</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4652770869795404</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8736316449431314</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.427726884257851</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4644407306461247</v>
+      </c>
+      <c r="R14">
+        <v>0.9242319038475273</v>
+      </c>
+      <c r="S14">
+        <v>1.314665443668162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.962224972930869</v>
+        <v>2.865741267088765</v>
       </c>
       <c r="C15">
-        <v>0.8392926961730325</v>
+        <v>0.9012742895999679</v>
       </c>
       <c r="D15">
-        <v>0.09307900966495453</v>
+        <v>0.0984472254039872</v>
       </c>
       <c r="E15">
-        <v>0.07659893430361819</v>
+        <v>0.07544143670328296</v>
       </c>
       <c r="F15">
-        <v>0.5565038864589127</v>
+        <v>0.5219851122138337</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1796686916001846</v>
+        <v>0.1795214111681531</v>
       </c>
       <c r="I15">
-        <v>0.01508272455139803</v>
+        <v>0.01455718291282082</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.17045338902658</v>
+        <v>0.1519157828865616</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.092807387316034</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.04254714508312496</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4319755815168946</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8838267137004721</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.388390275765431</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4312069298925749</v>
+      </c>
+      <c r="R15">
+        <v>0.9335326044425614</v>
+      </c>
+      <c r="S15">
+        <v>1.280020794001274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.776089869798739</v>
+        <v>2.689481496390897</v>
       </c>
       <c r="C16">
-        <v>0.7916204198039338</v>
+        <v>0.8472247987764092</v>
       </c>
       <c r="D16">
-        <v>0.08760591868728795</v>
+        <v>0.09242288385264175</v>
       </c>
       <c r="E16">
-        <v>0.07371440371588456</v>
+        <v>0.07282614514379127</v>
       </c>
       <c r="F16">
-        <v>0.5301584968887596</v>
+        <v>0.4986448250118585</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1657457228751298</v>
+        <v>0.1656454405649157</v>
       </c>
       <c r="I16">
-        <v>0.01325629074525381</v>
+        <v>0.01297925557230784</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926776106</v>
       </c>
       <c r="K16">
-        <v>0.1711940922372293</v>
+        <v>0.1538473734366121</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09582339574389032</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.039369458335063</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4094781094336213</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8750902041600455</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.335838310917524</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.408824835570897</v>
+      </c>
+      <c r="R16">
+        <v>0.9190475722518983</v>
+      </c>
+      <c r="S16">
+        <v>1.236484481144259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.659258652574806</v>
+        <v>2.575512171517119</v>
       </c>
       <c r="C17">
-        <v>0.7671432186475897</v>
+        <v>0.821124498677392</v>
       </c>
       <c r="D17">
-        <v>0.08158521130816609</v>
+        <v>0.08615277457740689</v>
       </c>
       <c r="E17">
-        <v>0.06551814468570205</v>
+        <v>0.06479075901429976</v>
       </c>
       <c r="F17">
-        <v>0.5333093078159123</v>
+        <v>0.5018122987767413</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1274406904125556</v>
+        <v>0.1273610640613185</v>
       </c>
       <c r="I17">
-        <v>0.0123122220264742</v>
+        <v>0.01216412427733982</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234339</v>
       </c>
       <c r="K17">
-        <v>0.1794996807355922</v>
+        <v>0.1614366334962405</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1000289181823515</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.04006245548296228</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4599732551421027</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8469957931797865</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.365445176785101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4593052713128429</v>
+      </c>
+      <c r="R17">
+        <v>0.8873293919058511</v>
+      </c>
+      <c r="S17">
+        <v>1.265177771755503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.591728191710672</v>
+        <v>2.505265269218569</v>
       </c>
       <c r="C18">
-        <v>0.7578795948739412</v>
+        <v>0.8139986374559101</v>
       </c>
       <c r="D18">
-        <v>0.07446764040854958</v>
+        <v>0.07898799453491279</v>
       </c>
       <c r="E18">
-        <v>0.08011661584126806</v>
+        <v>0.07947413344932208</v>
       </c>
       <c r="F18">
-        <v>0.5635283061276937</v>
+        <v>0.5294234998332215</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07477008541563634</v>
+        <v>0.07469281791397719</v>
       </c>
       <c r="I18">
-        <v>0.0117615558806996</v>
+        <v>0.01160910153580996</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146320727</v>
       </c>
       <c r="K18">
-        <v>0.1964652234902395</v>
+        <v>0.1758255249485075</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1062450067976979</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.04434546772687398</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5917005725701685</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8010884022017848</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.474565126329225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5909018182226546</v>
+      </c>
+      <c r="R18">
+        <v>0.8387606979584916</v>
+      </c>
+      <c r="S18">
+        <v>1.364420730152801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.562304978908742</v>
+        <v>2.469120702317866</v>
       </c>
       <c r="C19">
-        <v>0.7657889886545206</v>
+        <v>0.8270853976956403</v>
       </c>
       <c r="D19">
-        <v>0.06761113560509813</v>
+        <v>0.07222501208624976</v>
       </c>
       <c r="E19">
-        <v>0.1544683249348431</v>
+        <v>0.1538353473783012</v>
       </c>
       <c r="F19">
-        <v>0.6115514792002088</v>
+        <v>0.5728791975910283</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.03053234679835271</v>
+        <v>0.03043920874769412</v>
       </c>
       <c r="I19">
-        <v>0.01204731338924336</v>
+        <v>0.01189343437083679</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768438788</v>
       </c>
       <c r="K19">
-        <v>0.2184880088401506</v>
+        <v>0.1939336196297887</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1133342622292695</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.05092032770067334</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7994329425153737</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7515942459832772</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.63552737050594</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.7983890684846671</v>
+      </c>
+      <c r="R19">
+        <v>0.7871969963151741</v>
+      </c>
+      <c r="S19">
+        <v>1.508781006294953</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.652474657836933</v>
+        <v>2.541142478535846</v>
       </c>
       <c r="C20">
-        <v>0.8143141766786357</v>
+        <v>0.8890023090140176</v>
       </c>
       <c r="D20">
-        <v>0.06091708664703077</v>
+        <v>0.06598530386997936</v>
       </c>
       <c r="E20">
-        <v>0.3875314689819191</v>
+        <v>0.3866455608482227</v>
       </c>
       <c r="F20">
-        <v>0.7129880016534287</v>
+        <v>0.6640369625834666</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.008077721840655805</v>
+        <v>0.007901748385586771</v>
       </c>
       <c r="I20">
-        <v>0.0139056288809849</v>
+        <v>0.01354070306297306</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.2567505077603087</v>
+        <v>0.2241821831690807</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1227322279016931</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.06534861592811581</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.213709196166207</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6856733367044967</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.952556113278575</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.212003258292114</v>
+      </c>
+      <c r="R20">
+        <v>0.7202998062569748</v>
+      </c>
+      <c r="S20">
+        <v>1.78943294421552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.98357853000897</v>
+        <v>2.849224822905853</v>
       </c>
       <c r="C21">
-        <v>0.9106327244670638</v>
+        <v>1.001012406438434</v>
       </c>
       <c r="D21">
-        <v>0.06684716406800817</v>
+        <v>0.07294807745187626</v>
       </c>
       <c r="E21">
-        <v>0.4541415032445286</v>
+        <v>0.452626294866036</v>
       </c>
       <c r="F21">
-        <v>0.7933821722239571</v>
+        <v>0.7352938814992456</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.01154320694397679</v>
+        <v>0.01122378866853302</v>
       </c>
       <c r="I21">
-        <v>0.0178283612725405</v>
+        <v>0.0169689962063897</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>0.2690349126620148</v>
+        <v>0.2311489973592344</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1188623400100006</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.0774614846884667</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.399865104650516</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6681245361853243</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.154622330116979</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.397460686657894</v>
+      </c>
+      <c r="R21">
+        <v>0.7111341732823817</v>
+      </c>
+      <c r="S21">
+        <v>1.961623701503527</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.204477309875358</v>
+        <v>3.055187596667338</v>
       </c>
       <c r="C22">
-        <v>0.970198253641513</v>
+        <v>1.070410338461187</v>
       </c>
       <c r="D22">
-        <v>0.07094786928729491</v>
+        <v>0.07772006372418616</v>
       </c>
       <c r="E22">
-        <v>0.4837857255729006</v>
+        <v>0.4818503820337909</v>
       </c>
       <c r="F22">
-        <v>0.8447200149882548</v>
+        <v>0.7808096391279804</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.01395525993564095</v>
+        <v>0.01352875097275225</v>
       </c>
       <c r="I22">
-        <v>0.02034840226586709</v>
+        <v>0.01906205683899032</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>0.2769302136071339</v>
+        <v>0.2356621942080537</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1162639109636849</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.08585701142980895</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.502290756625555</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.6588059933447283</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.282293986406017</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.499414344013644</v>
+      </c>
+      <c r="R22">
+        <v>0.7073769189928143</v>
+      </c>
+      <c r="S22">
+        <v>2.070346730384955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.090678121321048</v>
+        <v>2.949265438750388</v>
       </c>
       <c r="C23">
-        <v>0.9357420556942202</v>
+        <v>1.030550931542905</v>
       </c>
       <c r="D23">
-        <v>0.06858126237558793</v>
+        <v>0.07498471857727651</v>
       </c>
       <c r="E23">
-        <v>0.4679809544731555</v>
+        <v>0.4662689675786993</v>
       </c>
       <c r="F23">
-        <v>0.8190566111490938</v>
+        <v>0.7581867448001276</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.01265119198385134</v>
+        <v>0.01228301623165273</v>
       </c>
       <c r="I23">
-        <v>0.01874603567984234</v>
+        <v>0.01762772472211083</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>0.2739425465486818</v>
+        <v>0.2343499284080863</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1180203370461186</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.08180134950312379</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.447659173030601</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.6625681168451649</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.220019262487938</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.445037415627539</v>
+      </c>
+      <c r="R23">
+        <v>0.7079758703956713</v>
+      </c>
+      <c r="S23">
+        <v>2.017896972984232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.652763290602365</v>
+        <v>2.540739366302489</v>
       </c>
       <c r="C24">
-        <v>0.8102854054323814</v>
+        <v>0.8852066051749432</v>
       </c>
       <c r="D24">
-        <v>0.05992525985966068</v>
+        <v>0.06497027644883957</v>
       </c>
       <c r="E24">
-        <v>0.4083141586574968</v>
+        <v>0.4074260277369177</v>
       </c>
       <c r="F24">
-        <v>0.7206774885815861</v>
+        <v>0.6711373751865608</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.008202866460976621</v>
+        <v>0.008023261895673289</v>
       </c>
       <c r="I24">
-        <v>0.0135244605577336</v>
+        <v>0.01305697590340582</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.2613273289762184</v>
+        <v>0.2281083902425713</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1242692710317712</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.06677323348281661</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.241221542545702</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6800873020148543</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.979359655799442</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.239479657286296</v>
+      </c>
+      <c r="R24">
+        <v>0.7139556881582365</v>
+      </c>
+      <c r="S24">
+        <v>1.813968614507189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.179680444084511</v>
+        <v>2.098078863096987</v>
       </c>
       <c r="C25">
-        <v>0.676145609560308</v>
+        <v>0.7303040762577666</v>
       </c>
       <c r="D25">
-        <v>0.05060756734562943</v>
+        <v>0.05423272370297383</v>
       </c>
       <c r="E25">
-        <v>0.3442979418902894</v>
+        <v>0.3442563625423816</v>
       </c>
       <c r="F25">
-        <v>0.6179246884126002</v>
+        <v>0.5799771866675769</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.004349739957488885</v>
+        <v>0.004312609425861202</v>
       </c>
       <c r="I25">
-        <v>0.00881057603270996</v>
+        <v>0.008888110806666738</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.2492020602426948</v>
+        <v>0.2224520377774084</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1314048643612402</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.05290211453611704</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.019446326539736</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.7016732259946465</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.729540210239207</v>
+        <v>1.018499660629217</v>
+      </c>
+      <c r="R25">
+        <v>0.7233611624678034</v>
+      </c>
+      <c r="S25">
+        <v>1.60172989162615</v>
       </c>
     </row>
   </sheetData>
